--- a/Excel 365 Intermediate Example File.xlsx
+++ b/Excel 365 Intermediate Example File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyectos_Portafolio\Excel\Aprendizaje_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC05340-A074-4352-B5EE-C506DF736BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526ADFF2-1278-4D97-96D3-A5C32A17649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creating Tables" sheetId="21" r:id="rId1"/>
@@ -53,6 +53,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2988,6 +3010,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="7" xfId="18" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="32" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="35" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3012,9 +3037,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="32" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
@@ -3058,6 +3080,80 @@
     <cellStyle name="Título 3" xfId="19" builtinId="18"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3222,98 +3318,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3427,6 +3431,24 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3441,7 +3463,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}" name="Tabla1" displayName="Tabla1" ref="A3:I41" totalsRowCount="1" headerRowDxfId="9" dataDxfId="10" headerRowBorderDxfId="20" headerRowCellStyle="Título 2" dataCellStyle="Normal 2 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}" name="Tabla1" displayName="Tabla1" ref="A3:I41" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" headerRowCellStyle="Título 2" dataCellStyle="Normal 2 2">
   <autoFilter ref="A3:I40" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3454,15 +3476,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1EAC7974-00C9-4EFB-85EF-CC63D7CFF707}" name="Emp ID" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="8" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="2" xr3:uid="{A63CA99E-6161-4779-8693-5A55889C846C}" name="Last Name" dataDxfId="18" totalsRowDxfId="7" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="3" xr3:uid="{C60678BE-4903-4CEE-A144-AF9980E9471C}" name="First Name" dataDxfId="17" totalsRowDxfId="6" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="4" xr3:uid="{EB3FC3A6-2C8D-4752-BF5A-732950821749}" name="Dept" dataDxfId="16" totalsRowDxfId="5" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="5" xr3:uid="{34F17DC6-08A0-46E2-B329-C8D7D5A67F3A}" name="E-mail" dataDxfId="15" totalsRowDxfId="4" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="6" xr3:uid="{8889C200-A3AD-4945-BF08-A559CD0A9858}" name="Phone Ext" dataDxfId="14" totalsRowDxfId="3" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="7" xr3:uid="{C9CD6CEA-98FA-4B65-943A-1A7063852801}" name="Location" dataDxfId="13" totalsRowDxfId="2" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="8" xr3:uid="{147208F8-E846-4A62-8092-F4D4DAB0B191}" name="Hire Date" dataDxfId="12" totalsRowDxfId="1" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="9" xr3:uid="{11D89DE6-3277-408C-B9D8-7A5D6FA12CAC}" name="Pay Rate" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="0" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{1EAC7974-00C9-4EFB-85EF-CC63D7CFF707}" name="Emp ID" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="2" xr3:uid="{A63CA99E-6161-4779-8693-5A55889C846C}" name="Last Name" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="3" xr3:uid="{C60678BE-4903-4CEE-A144-AF9980E9471C}" name="First Name" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="4" xr3:uid="{EB3FC3A6-2C8D-4752-BF5A-732950821749}" name="Dept" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="5" xr3:uid="{34F17DC6-08A0-46E2-B329-C8D7D5A67F3A}" name="E-mail" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="6" xr3:uid="{8889C200-A3AD-4945-BF08-A559CD0A9858}" name="Phone Ext" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="7" xr3:uid="{C9CD6CEA-98FA-4B65-943A-1A7063852801}" name="Location" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="8" xr3:uid="{147208F8-E846-4A62-8092-F4D4DAB0B191}" name="Hire Date" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="9" xr3:uid="{11D89DE6-3277-408C-B9D8-7A5D6FA12CAC}" name="Pay Rate" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4860,17 +4882,17 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="73" t="s">
         <v>745</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="82">
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74">
         <f>SUBTOTAL(109,Tabla1[Pay Rate])</f>
         <v>420.59999999999997</v>
       </c>
@@ -4905,22 +4927,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="79" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="76">
+      <c r="A2" s="79">
         <v>2023</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -8962,13 +8984,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="80" t="s">
         <v>595</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -11829,13 +11851,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
@@ -12022,7 +12044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF55A766-09B5-45A0-9F1B-2B81FCDEE56F}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -12073,17 +12095,17 @@
       <c r="A2" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>746</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="75" t="s">
         <v>755</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="75" t="s">
         <v>765</v>
       </c>
       <c r="G2" s="36">
@@ -12092,7 +12114,7 @@
       <c r="H2" s="61" t="s">
         <v>506</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="75" t="s">
         <v>769</v>
       </c>
     </row>
@@ -12100,17 +12122,17 @@
       <c r="A3" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="75" t="s">
         <v>747</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="75" t="s">
         <v>756</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="75" t="s">
         <v>766</v>
       </c>
       <c r="G3" s="36">
@@ -12119,7 +12141,7 @@
       <c r="H3" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="75" t="s">
         <v>770</v>
       </c>
     </row>
@@ -12127,17 +12149,17 @@
       <c r="A4" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="75" t="s">
         <v>757</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="75" t="s">
         <v>767</v>
       </c>
       <c r="G4" s="36">
@@ -12146,7 +12168,7 @@
       <c r="H4" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="75" t="s">
         <v>771</v>
       </c>
     </row>
@@ -12154,17 +12176,17 @@
       <c r="A5" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="75" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="75" t="s">
         <v>758</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="75" t="s">
         <v>768</v>
       </c>
       <c r="G5" s="36">
@@ -12173,7 +12195,7 @@
       <c r="H5" s="61" t="s">
         <v>509</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="75" t="s">
         <v>772</v>
       </c>
     </row>
@@ -12181,10 +12203,10 @@
       <c r="A6" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="75" t="s">
         <v>749</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="75" t="s">
         <v>759</v>
       </c>
       <c r="D6" s="36"/>
@@ -12193,10 +12215,10 @@
       <c r="A7" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="75" t="s">
         <v>750</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="75" t="s">
         <v>760</v>
       </c>
       <c r="D7" s="36"/>
@@ -12205,10 +12227,10 @@
       <c r="A8" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="75" t="s">
         <v>751</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="75" t="s">
         <v>761</v>
       </c>
       <c r="D8" s="36"/>
@@ -12217,10 +12239,10 @@
       <c r="A9" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="75" t="s">
         <v>752</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="75" t="s">
         <v>762</v>
       </c>
       <c r="D9" s="36"/>
@@ -12229,10 +12251,10 @@
       <c r="A10" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="75" t="s">
         <v>753</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="75" t="s">
         <v>763</v>
       </c>
       <c r="D10" s="36"/>
@@ -12241,10 +12263,10 @@
       <c r="A11" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="75" t="s">
         <v>754</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="75" t="s">
         <v>764</v>
       </c>
       <c r="D11" s="36"/>
@@ -12284,7 +12306,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12295,21 +12317,21 @@
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="76" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
@@ -12339,395 +12361,399 @@
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="62">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>232</v>
+        <v>533</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>10</v>
+        <v>534</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G4" s="63">
-        <v>42740</v>
+        <v>42112</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>323</v>
+        <v>521</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="F5" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="63">
-        <v>43726</v>
+        <v>43173</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="62">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F6" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="63">
-        <v>42551</v>
+        <v>43726</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>521</v>
+        <v>230</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>522</v>
+        <v>11</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="F7" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="63">
-        <v>43173</v>
+        <v>42316</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G8" s="63">
-        <v>44137</v>
+        <v>42401</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>529</v>
+        <v>164</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G9" s="63">
-        <v>44323</v>
+        <v>42551</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>533</v>
+        <v>161</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G10" s="63">
-        <v>42112</v>
+        <v>41539</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G11" s="63">
-        <v>43080</v>
+        <v>43311</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>161</v>
+        <v>549</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>540</v>
+        <v>267</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="F12" s="62" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="63">
-        <v>41539</v>
+        <v>44483</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>543</v>
+        <v>10</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G13" s="63">
-        <v>44792</v>
+        <v>42740</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>125</v>
+        <v>529</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="63">
-        <v>43311</v>
+        <v>44323</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>549</v>
+        <v>77</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>267</v>
+        <v>543</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G15" s="63">
-        <v>44483</v>
+        <v>44792</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>552</v>
+        <v>69</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="F16" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="63">
-        <v>42401</v>
+        <v>44627</v>
       </c>
       <c r="H16" s="62" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>11</v>
+        <v>526</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G17" s="63">
-        <v>42316</v>
+        <v>44137</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="D18" s="62" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G18" s="63">
-        <v>44627</v>
+        <v>43080</v>
       </c>
       <c r="H18" s="62" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H18">
+    <sortCondition ref="C4:C18"/>
+    <sortCondition ref="F4:F18"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
@@ -12740,12 +12766,14 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="40"/>
+    <col min="1" max="5" width="8.85546875" style="40"/>
+    <col min="6" max="6" width="12.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -12787,6 +12815,19 @@
       <c r="D2" s="41">
         <v>6380</v>
       </c>
+      <c r="F2" s="40" t="str" cm="1">
+        <f t="array" ref="F2:I7">_xlfn._xlws.SORT(A2:D7,2,-1)</f>
+        <v>East</v>
+      </c>
+      <c r="G2" s="40" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="H2" s="40" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="I2" s="40">
+        <v>6380</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
@@ -12801,6 +12842,18 @@
       <c r="D3" s="41">
         <v>5619</v>
       </c>
+      <c r="F3" s="40" t="str">
+        <v>West</v>
+      </c>
+      <c r="G3" s="40" t="str">
+        <v>Sravan</v>
+      </c>
+      <c r="H3" s="40" t="str">
+        <v>Grape</v>
+      </c>
+      <c r="I3" s="40">
+        <v>7195</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -12815,6 +12868,18 @@
       <c r="D4" s="41">
         <v>4565</v>
       </c>
+      <c r="F4" s="40" t="str">
+        <v>South</v>
+      </c>
+      <c r="G4" s="40" t="str">
+        <v>Sal</v>
+      </c>
+      <c r="H4" s="40" t="str">
+        <v>Banana</v>
+      </c>
+      <c r="I4" s="40">
+        <v>5323</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
@@ -12829,6 +12894,18 @@
       <c r="D5" s="41">
         <v>5323</v>
       </c>
+      <c r="F5" s="40" t="str">
+        <v>East</v>
+      </c>
+      <c r="G5" s="40" t="str">
+        <v>Fritz</v>
+      </c>
+      <c r="H5" s="40" t="str">
+        <v>Apple</v>
+      </c>
+      <c r="I5" s="40">
+        <v>4394</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
@@ -12843,6 +12920,18 @@
       <c r="D6" s="41">
         <v>4394</v>
       </c>
+      <c r="F6" s="40" t="str">
+        <v>West</v>
+      </c>
+      <c r="G6" s="40" t="str">
+        <v>Fred</v>
+      </c>
+      <c r="H6" s="40" t="str">
+        <v>Grape</v>
+      </c>
+      <c r="I6" s="40">
+        <v>5619</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
@@ -12856,6 +12945,18 @@
       </c>
       <c r="D7" s="41">
         <v>7195</v>
+      </c>
+      <c r="F7" s="40" t="str">
+        <v>North</v>
+      </c>
+      <c r="G7" s="40" t="str">
+        <v>Amy</v>
+      </c>
+      <c r="H7" s="40" t="str">
+        <v>Pear</v>
+      </c>
+      <c r="I7" s="40">
+        <v>4565</v>
       </c>
     </row>
   </sheetData>
@@ -12867,8 +12968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A97F11-E05A-4E0E-8FBB-84963E30A397}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12909,6 +13010,13 @@
         <f t="shared" ref="C2:C8" si="0">20%*B2</f>
         <v>31607.200000000001</v>
       </c>
+      <c r="E2" s="40" t="str" cm="1">
+        <f t="array" ref="E2:F8">_xlfn.SORTBY(A2:B8,C2:C8,1)</f>
+        <v>Sal</v>
+      </c>
+      <c r="F2" s="40">
+        <v>129676</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
@@ -12921,6 +13029,12 @@
         <f t="shared" si="0"/>
         <v>45190</v>
       </c>
+      <c r="E3" s="40" t="str">
+        <v>Hector</v>
+      </c>
+      <c r="F3" s="40">
+        <v>129707</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
@@ -12933,6 +13047,12 @@
         <f t="shared" si="0"/>
         <v>47265.600000000006</v>
       </c>
+      <c r="E4" s="40" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="F4" s="40">
+        <v>158036</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
@@ -12945,6 +13065,12 @@
         <f t="shared" si="0"/>
         <v>25935.200000000001</v>
       </c>
+      <c r="E5" s="40" t="str">
+        <v>Xi</v>
+      </c>
+      <c r="F5" s="40">
+        <v>174470</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
@@ -12957,6 +13083,12 @@
         <f t="shared" si="0"/>
         <v>37336.200000000004</v>
       </c>
+      <c r="E6" s="40" t="str">
+        <v>Srivan</v>
+      </c>
+      <c r="F6" s="40">
+        <v>186681</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
@@ -12969,6 +13101,12 @@
         <f t="shared" si="0"/>
         <v>34894</v>
       </c>
+      <c r="E7" s="40" t="str">
+        <v>Fred</v>
+      </c>
+      <c r="F7" s="40">
+        <v>225950</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
@@ -12980,6 +13118,12 @@
       <c r="C8" s="43">
         <f t="shared" si="0"/>
         <v>25941.4</v>
+      </c>
+      <c r="E8" s="40" t="str">
+        <v>Amy</v>
+      </c>
+      <c r="F8" s="40">
+        <v>236328</v>
       </c>
     </row>
   </sheetData>
@@ -16774,13 +16918,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
@@ -22020,20 +22164,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>570</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">

--- a/Excel 365 Intermediate Example File.xlsx
+++ b/Excel 365 Intermediate Example File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyectos_Portafolio\Excel\Aprendizaje_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526ADFF2-1278-4D97-96D3-A5C32A17649B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28D7958-59B8-45D8-AB2A-323D7E346C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creating Tables" sheetId="21" r:id="rId1"/>
@@ -36,9 +36,20 @@
     <definedName name="List" localSheetId="11">#REF!</definedName>
     <definedName name="List" localSheetId="6">#REF!</definedName>
     <definedName name="List">#REF!</definedName>
+    <definedName name="SegmentaciónDeDatos_DEPT">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_DIVISION">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -56,7 +67,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -78,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="774">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2397,6 +2408,9 @@
   </si>
   <si>
     <t>tempmail</t>
+  </si>
+  <si>
+    <t>Trends</t>
   </si>
 </sst>
 </file>
@@ -3079,7 +3093,233 @@
     <cellStyle name="Título 2" xfId="17" builtinId="17"/>
     <cellStyle name="Título 3" xfId="19" builtinId="18"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3462,8 +3702,1496 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Owen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Qtr. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Qtr. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qtr. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qtr. 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BB0-4E98-B73E-3FF8CB28F7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sophia </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Qtr. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Qtr. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qtr. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qtr. 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>514350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>519885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>709377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BB0-4E98-B73E-3FF8CB28F7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lucas </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Qtr. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Qtr. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qtr. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qtr. 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>432540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>562294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9BB0-4E98-B73E-3FF8CB28F7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isabella </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Qtr. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Qtr. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qtr. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qtr. 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>699088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>386564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>339692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9BB0-4E98-B73E-3FF8CB28F7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Charts!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Noah </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Charts!$B$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Qtr. 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Qtr. 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qtr. 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qtr. 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Charts!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>396375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>702804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>397215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9BB0-4E98-B73E-3FF8CB28F7BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="2096085167"/>
+        <c:axId val="1951858719"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2096085167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1951858719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1951858719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2096085167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent6">
+        <a:lumMod val="50000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="DIVISION">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496DD4FE-AB2D-41D9-9323-F16F379E184B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="DIVISION"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8839200" y="542925"/>
+              <a:ext cx="1828800" cy="1438275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="DEPT">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD215DF1-BFB8-4B02-A290-A22B0B9D98DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="DEPT"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8877300" y="2076450"/>
+              <a:ext cx="1828800" cy="1428750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>263769</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520212</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F206C09-F2D8-3BC5-87F9-D73992E20FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_DIVISION" xr10:uid="{FB1E22C8-A5CE-477C-9F44-AE402A3D6B1F}" sourceName="DIVISION">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="5"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_DEPT" xr10:uid="{ECB103B9-CB7C-4DE7-AEED-E88EE7105047}" sourceName="DEPT">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="DIVISION" xr10:uid="{91D73703-27EC-4C96-8630-5C605736919F}" cache="SegmentaciónDeDatos_DIVISION" caption="DIVISION" rowHeight="225425"/>
+  <slicer name="DEPT" xr10:uid="{672F656E-6A5B-410D-B330-74130DC2F016}" cache="SegmentaciónDeDatos_DEPT" caption="DEPT" rowHeight="225425"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}" name="Tabla1" displayName="Tabla1" ref="A3:I41" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" headerRowCellStyle="Título 2" dataCellStyle="Normal 2 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}" name="Tabla1" displayName="Tabla1" ref="A3:I41" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" headerRowCellStyle="Título 2" dataCellStyle="Normal 2 2">
   <autoFilter ref="A3:I40" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3476,15 +5204,37 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1EAC7974-00C9-4EFB-85EF-CC63D7CFF707}" name="Emp ID" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="2" xr3:uid="{A63CA99E-6161-4779-8693-5A55889C846C}" name="Last Name" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="3" xr3:uid="{C60678BE-4903-4CEE-A144-AF9980E9471C}" name="First Name" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="4" xr3:uid="{EB3FC3A6-2C8D-4752-BF5A-732950821749}" name="Dept" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="5" xr3:uid="{34F17DC6-08A0-46E2-B329-C8D7D5A67F3A}" name="E-mail" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="6" xr3:uid="{8889C200-A3AD-4945-BF08-A559CD0A9858}" name="Phone Ext" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="7" xr3:uid="{C9CD6CEA-98FA-4B65-943A-1A7063852801}" name="Location" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="8" xr3:uid="{147208F8-E846-4A62-8092-F4D4DAB0B191}" name="Hire Date" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="9" xr3:uid="{11D89DE6-3277-408C-B9D8-7A5D6FA12CAC}" name="Pay Rate" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{1EAC7974-00C9-4EFB-85EF-CC63D7CFF707}" name="Emp ID" totalsRowLabel="Total" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="2" xr3:uid="{A63CA99E-6161-4779-8693-5A55889C846C}" name="Last Name" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="3" xr3:uid="{C60678BE-4903-4CEE-A144-AF9980E9471C}" name="First Name" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="4" xr3:uid="{EB3FC3A6-2C8D-4752-BF5A-732950821749}" name="Dept" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="5" xr3:uid="{34F17DC6-08A0-46E2-B329-C8D7D5A67F3A}" name="E-mail" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="6" xr3:uid="{8889C200-A3AD-4945-BF08-A559CD0A9858}" name="Phone Ext" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="7" xr3:uid="{C9CD6CEA-98FA-4B65-943A-1A7063852801}" name="Location" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="8" xr3:uid="{147208F8-E846-4A62-8092-F4D4DAB0B191}" name="Hire Date" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="9" xr3:uid="{11D89DE6-3277-408C-B9D8-7A5D6FA12CAC}" name="Pay Rate" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43D1ACAF-4669-4B1D-8AB5-BAD478937FF6}" name="Tabla2" displayName="Tabla2" ref="A3:K97" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="12">
+  <autoFilter ref="A3:K97" xr:uid="{43D1ACAF-4669-4B1D-8AB5-BAD478937FF6}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{324F20D1-5019-4BC2-96A5-BF300E6E9920}" name="NUM" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{69FEC92D-2C79-468A-847A-06767478B755}" name="FIRST" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{BD0187DC-E524-47BD-9A54-071DBCB876CF}" name="LAST" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D1AA3924-9535-4B8B-ABDF-2B9794825BCB}" name="EMP#" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{EA2F55AE-3B0E-4297-BF1B-7BA8151AB624}" name="DIVISION" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{888D4665-7893-4AC1-BE34-6A997178783A}" name="DEPT" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{AC7B5F1F-6CDD-453B-B7CD-B366C12ED714}" name="DATE of HIRE" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{55D85F03-D2AA-4215-9757-7A9A2C56AEDA}" name="BEN" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{92081B0F-A01B-4385-ADA3-0CA7EF6F2C34}" name="HRS" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{B488E6A0-D99F-451B-B764-AE01C3A10DC5}" name="HOURLY RATE" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{B1F42F0F-1C9A-4DDB-87B4-D2CF37D1BB78}" name="GROSS PAY" dataDxfId="1">
+      <calculatedColumnFormula>I4*J4</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4912,8 +6662,8 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4960,6 +6710,9 @@
       <c r="E4" s="22" t="s">
         <v>584</v>
       </c>
+      <c r="F4" s="22" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -5071,6 +6824,38 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{2526D322-920A-4A7D-AE96-D6FD738E3621}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sparklines!B5:E5</xm:f>
+              <xm:sqref>F5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sparklines!B6:E6</xm:f>
+              <xm:sqref>F6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sparklines!B7:E7</xm:f>
+              <xm:sqref>F7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sparklines!B8:E8</xm:f>
+              <xm:sqref>F8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sparklines!B9:E9</xm:f>
+              <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3A544E26-3A61-4A48-8966-3846F9B3513E}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -12968,7 +14753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A97F11-E05A-4E0E-8FBB-84963E30A397}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -13133,21 +14918,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F5E862-1B97-459F-A133-43D2D6475A22}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>478</v>
       </c>
@@ -13158,7 +14943,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>44927</v>
       </c>
@@ -13169,7 +14954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="52">
         <v>44928</v>
       </c>
@@ -13180,7 +14965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>44929</v>
       </c>
@@ -13191,7 +14976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>44930</v>
       </c>
@@ -13201,8 +14986,12 @@
       <c r="C5" s="50">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="40" t="str" cm="1">
+        <f t="array" ref="E5:E11">_xlfn.UNIQUE(B2:B17)</f>
+        <v>Apples</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>44931</v>
       </c>
@@ -13212,8 +15001,11 @@
       <c r="C6" s="47">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="40" t="str">
+        <v>Oranges</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>44932</v>
       </c>
@@ -13223,8 +15015,11 @@
       <c r="C7" s="50">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="40" t="str">
+        <v>Bananas</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>44933</v>
       </c>
@@ -13234,8 +15029,11 @@
       <c r="C8" s="47">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="40" t="str">
+        <v>Strawberries</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>44934</v>
       </c>
@@ -13245,8 +15043,11 @@
       <c r="C9" s="50">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="40" t="str">
+        <v>Blueberries</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>44935</v>
       </c>
@@ -13256,8 +15057,11 @@
       <c r="C10" s="47">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="40" t="str">
+        <v>Grapes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>44936</v>
       </c>
@@ -13267,8 +15071,11 @@
       <c r="C11" s="50">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="40" t="str">
+        <v>Cherries</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>44937</v>
       </c>
@@ -13279,7 +15086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>44938</v>
       </c>
@@ -13290,7 +15097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>44939</v>
       </c>
@@ -13301,7 +15108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>44940</v>
       </c>
@@ -13312,7 +15119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>44941</v>
       </c>
@@ -13346,20 +15153,20 @@
   </sheetPr>
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="9" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
@@ -16888,7 +18695,16 @@
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -16904,14 +18720,14 @@
   <dimension ref="A1:E308"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -16945,118 +18761,118 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>45216</v>
+        <v>44811</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C4" s="7">
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="D4" s="7">
-        <v>60.28</v>
+        <v>33.44</v>
       </c>
       <c r="E4" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>45194</v>
+        <v>44636</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="D5" s="7">
-        <v>23.76</v>
+        <v>58.52</v>
       </c>
       <c r="E5" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>44811</v>
+        <v>45140</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>565</v>
       </c>
       <c r="C6" s="7">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D6" s="7">
-        <v>33.44</v>
+        <v>19.36</v>
       </c>
       <c r="E6" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>44636</v>
+        <v>45160</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>565</v>
       </c>
       <c r="C7" s="7">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D7" s="7">
-        <v>58.52</v>
+        <v>60.06</v>
       </c>
       <c r="E7" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>44849</v>
+        <v>44741</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C8" s="7">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="D8" s="7">
-        <v>12.98</v>
+        <v>38.5</v>
       </c>
       <c r="E8" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>45257</v>
+        <v>44641</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C9" s="7">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7">
-        <v>55.88</v>
+        <v>31.68</v>
       </c>
       <c r="E9" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>44863</v>
+        <v>45121</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C10" s="7">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D10" s="7">
-        <v>44.660000000000004</v>
+        <v>55.660000000000004</v>
       </c>
       <c r="E10" s="5">
         <v>12</v>
@@ -17064,84 +18880,84 @@
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>45123</v>
+        <v>44624</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C11" s="7">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>35.64</v>
+        <v>18.04</v>
       </c>
       <c r="E11" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>44892</v>
+        <v>44629</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>61.82</v>
+        <v>36.96</v>
       </c>
       <c r="E12" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>44887</v>
+        <v>45078</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C13" s="7">
-        <v>295</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7">
-        <v>64.900000000000006</v>
+        <v>33.880000000000003</v>
       </c>
       <c r="E13" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>44577</v>
+        <v>44768</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C14" s="7">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>39.380000000000003</v>
+        <v>45.98</v>
       </c>
       <c r="E14" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>44666</v>
+        <v>44961</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C15" s="7">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>41.14</v>
+        <v>26.84</v>
       </c>
       <c r="E15" s="5">
         <v>14</v>
@@ -17149,356 +18965,356 @@
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>44945</v>
+        <v>44943</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C16" s="7">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>44.660000000000004</v>
+        <v>12.76</v>
       </c>
       <c r="E16" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>44986</v>
+        <v>44832</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C17" s="7">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="D17" s="7">
-        <v>32.78</v>
+        <v>50.82</v>
       </c>
       <c r="E17" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>44648</v>
+        <v>45208</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C18" s="7">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>27.28</v>
+        <v>23.76</v>
       </c>
       <c r="E18" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>44973</v>
+        <v>44673</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C19" s="7">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>55.660000000000004</v>
+        <v>13.64</v>
       </c>
       <c r="E19" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>44824</v>
+        <v>45239</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C20" s="7">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="D20" s="7">
-        <v>24.64</v>
+        <v>52.14</v>
       </c>
       <c r="E20" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>45261</v>
+        <v>44949</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C21" s="7">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7">
-        <v>60.5</v>
+        <v>16.28</v>
       </c>
       <c r="E21" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>44816</v>
+        <v>44839</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C22" s="7">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7">
-        <v>44.44</v>
+        <v>22.88</v>
       </c>
       <c r="E22" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>44562</v>
+        <v>44839</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C23" s="7">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D23" s="7">
-        <v>23.32</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="E23" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>44573</v>
+        <v>44899</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C24" s="7">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="D24" s="7">
-        <v>40.92</v>
+        <v>32.56</v>
       </c>
       <c r="E24" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>45166</v>
+        <v>44851</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C25" s="7">
-        <v>295</v>
+        <v>100</v>
       </c>
       <c r="D25" s="7">
-        <v>64.900000000000006</v>
+        <v>22</v>
       </c>
       <c r="E25" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>44733</v>
+        <v>44707</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C26" s="7">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="D26" s="7">
-        <v>52.36</v>
+        <v>26.62</v>
       </c>
       <c r="E26" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>44674</v>
+        <v>44955</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C27" s="7">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="D27" s="7">
-        <v>46.42</v>
+        <v>14.08</v>
       </c>
       <c r="E27" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>45062</v>
+        <v>44737</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C28" s="7">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D28" s="7">
-        <v>14.96</v>
+        <v>21.56</v>
       </c>
       <c r="E28" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>45140</v>
+        <v>44710</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>565</v>
       </c>
       <c r="C29" s="7">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D29" s="7">
-        <v>19.36</v>
+        <v>22.88</v>
       </c>
       <c r="E29" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>44618</v>
+        <v>45050</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C30" s="7">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="D30" s="7">
-        <v>60.72</v>
+        <v>52.14</v>
       </c>
       <c r="E30" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>44744</v>
+        <v>45197</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C31" s="7">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="D31" s="7">
-        <v>21.56</v>
+        <v>54.34</v>
       </c>
       <c r="E31" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>45090</v>
+        <v>44568</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C32" s="7">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="D32" s="7">
-        <v>53.68</v>
+        <v>20.9</v>
       </c>
       <c r="E32" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>45015</v>
+        <v>44948</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C33" s="7">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="D33" s="7">
-        <v>47.96</v>
+        <v>41.36</v>
       </c>
       <c r="E33" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>45111</v>
+        <v>44806</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C34" s="7">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="D34" s="7">
-        <v>34.76</v>
+        <v>17.82</v>
       </c>
       <c r="E34" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>45039</v>
+        <v>44773</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C35" s="7">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="D35" s="7">
-        <v>11.66</v>
+        <v>56.32</v>
       </c>
       <c r="E35" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>44847</v>
+        <v>44869</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C36" s="7">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="D36" s="7">
-        <v>29.92</v>
+        <v>47.3</v>
       </c>
       <c r="E36" s="5">
         <v>9</v>
@@ -17506,410 +19322,410 @@
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>45160</v>
+        <v>44654</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>565</v>
       </c>
       <c r="C37" s="7">
-        <v>273</v>
+        <v>126</v>
       </c>
       <c r="D37" s="7">
-        <v>60.06</v>
+        <v>27.72</v>
       </c>
       <c r="E37" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>44684</v>
+        <v>44831</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C38" s="7">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="D38" s="7">
-        <v>36.96</v>
+        <v>52.58</v>
       </c>
       <c r="E38" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>45087</v>
+        <v>44991</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C39" s="7">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="D39" s="7">
-        <v>55</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="E39" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>44741</v>
+        <v>45144</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>565</v>
       </c>
       <c r="C40" s="7">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="D40" s="7">
-        <v>38.5</v>
+        <v>23.32</v>
       </c>
       <c r="E40" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>44601</v>
+        <v>44967</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C41" s="7">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="D41" s="7">
-        <v>42.9</v>
+        <v>58.74</v>
       </c>
       <c r="E41" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>44686</v>
+        <v>44679</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C42" s="7">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="D42" s="7">
-        <v>64.459999999999994</v>
+        <v>51.92</v>
       </c>
       <c r="E42" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>44774</v>
+        <v>44887</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C43" s="7">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="D43" s="7">
-        <v>13.86</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="E43" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>45101</v>
+        <v>44577</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C44" s="7">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="D44" s="7">
-        <v>62.92</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="E44" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>44883</v>
+        <v>44666</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C45" s="7">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D45" s="7">
-        <v>23.54</v>
+        <v>41.14</v>
       </c>
       <c r="E45" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>45203</v>
+        <v>44648</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C46" s="7">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D46" s="7">
-        <v>36.74</v>
+        <v>27.28</v>
       </c>
       <c r="E46" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>44753</v>
+        <v>44562</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C47" s="7">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D47" s="7">
-        <v>20.239999999999998</v>
+        <v>23.32</v>
       </c>
       <c r="E47" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>44641</v>
+        <v>45166</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C48" s="7">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="D48" s="7">
-        <v>31.68</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="E48" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>45110</v>
+        <v>44733</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C49" s="7">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="D49" s="7">
-        <v>17.38</v>
+        <v>52.36</v>
       </c>
       <c r="E49" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>44775</v>
+        <v>44744</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C50" s="7">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="D50" s="7">
-        <v>44</v>
+        <v>21.56</v>
       </c>
       <c r="E50" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>45173</v>
+        <v>45090</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C51" s="7">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D51" s="7">
-        <v>58.52</v>
+        <v>53.68</v>
       </c>
       <c r="E51" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>44734</v>
+        <v>45111</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C52" s="7">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="D52" s="7">
-        <v>23.32</v>
+        <v>34.76</v>
       </c>
       <c r="E52" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>44807</v>
+        <v>45039</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C53" s="7">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D53" s="7">
-        <v>23.32</v>
+        <v>11.66</v>
       </c>
       <c r="E53" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>44983</v>
+        <v>44847</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C54" s="7">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D54" s="7">
-        <v>20.9</v>
+        <v>29.92</v>
       </c>
       <c r="E54" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>44867</v>
+        <v>45087</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C55" s="7">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="D55" s="7">
-        <v>29.04</v>
+        <v>55</v>
       </c>
       <c r="E55" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>44640</v>
+        <v>44883</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C56" s="7">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="D56" s="7">
-        <v>33</v>
+        <v>23.54</v>
       </c>
       <c r="E56" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>44747</v>
+        <v>45110</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C57" s="7">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D57" s="7">
-        <v>19.8</v>
+        <v>17.38</v>
       </c>
       <c r="E57" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>45093</v>
+        <v>44807</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C58" s="7">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D58" s="7">
-        <v>24.86</v>
+        <v>23.32</v>
       </c>
       <c r="E58" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>44833</v>
+        <v>44983</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C59" s="7">
-        <v>292</v>
+        <v>95</v>
       </c>
       <c r="D59" s="7">
-        <v>64.239999999999995</v>
+        <v>20.9</v>
       </c>
       <c r="E59" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>45121</v>
+        <v>44833</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C60" s="7">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D60" s="7">
-        <v>55.660000000000004</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="E60" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -17931,78 +19747,78 @@
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>44991</v>
+        <v>45211</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C62" s="7">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="D62" s="7">
-        <v>18.04</v>
+        <v>44</v>
       </c>
       <c r="E62" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>44624</v>
+        <v>45180</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C63" s="7">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="D63" s="7">
-        <v>18.04</v>
+        <v>30.36</v>
       </c>
       <c r="E63" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>45211</v>
+        <v>45126</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C64" s="7">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="D64" s="7">
-        <v>44</v>
+        <v>34.76</v>
       </c>
       <c r="E64" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>45180</v>
+        <v>44984</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C65" s="7">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="D65" s="7">
-        <v>30.36</v>
+        <v>53.24</v>
       </c>
       <c r="E65" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>44723</v>
+        <v>44618</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C66" s="7">
         <v>123</v>
@@ -18011,327 +19827,327 @@
         <v>27.06</v>
       </c>
       <c r="E66" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>44716</v>
+        <v>44999</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C67" s="7">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D67" s="7">
-        <v>20.02</v>
+        <v>22.22</v>
       </c>
       <c r="E67" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>45126</v>
+        <v>44669</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C68" s="7">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D68" s="7">
-        <v>34.76</v>
+        <v>30.36</v>
       </c>
       <c r="E68" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>45146</v>
+        <v>45012</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C69" s="7">
-        <v>137</v>
+        <v>292</v>
       </c>
       <c r="D69" s="7">
-        <v>30.14</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="E69" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>44720</v>
+        <v>45154</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C70" s="7">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="D70" s="7">
-        <v>38.28</v>
+        <v>25.74</v>
       </c>
       <c r="E70" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>44984</v>
+        <v>44760</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C71" s="7">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D71" s="7">
-        <v>53.24</v>
+        <v>47.08</v>
       </c>
       <c r="E71" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>44720</v>
+        <v>45216</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C72" s="7">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D72" s="7">
-        <v>41.8</v>
+        <v>32.119999999999997</v>
       </c>
       <c r="E72" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>45133</v>
+        <v>44772</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C73" s="7">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D73" s="7">
-        <v>22.66</v>
+        <v>21.78</v>
       </c>
       <c r="E73" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>44618</v>
+        <v>45032</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C74" s="7">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="D74" s="7">
-        <v>27.06</v>
+        <v>38.28</v>
       </c>
       <c r="E74" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>44999</v>
+        <v>45007</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C75" s="7">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="D75" s="7">
-        <v>22.22</v>
+        <v>48.4</v>
       </c>
       <c r="E75" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>45235</v>
+        <v>44584</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C76" s="7">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D76" s="7">
-        <v>19.36</v>
+        <v>20.9</v>
       </c>
       <c r="E76" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>45255</v>
+        <v>44659</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C77" s="7">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="D77" s="7">
-        <v>33.44</v>
+        <v>23.54</v>
       </c>
       <c r="E77" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>44669</v>
+        <v>44931</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C78" s="7">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="D78" s="7">
-        <v>30.36</v>
+        <v>13.64</v>
       </c>
       <c r="E78" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>44651</v>
+        <v>45180</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C79" s="7">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="D79" s="7">
-        <v>11</v>
+        <v>35.86</v>
       </c>
       <c r="E79" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>44740</v>
+        <v>45073</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C80" s="7">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="D80" s="7">
-        <v>38.06</v>
+        <v>65.34</v>
       </c>
       <c r="E80" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>45012</v>
+        <v>44801</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C81" s="7">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="D81" s="7">
-        <v>64.239999999999995</v>
+        <v>56.76</v>
       </c>
       <c r="E81" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>45185</v>
+        <v>44870</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C82" s="7">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="D82" s="7">
-        <v>19.36</v>
+        <v>51.48</v>
       </c>
       <c r="E82" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>44629</v>
+        <v>45100</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C83" s="7">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="D83" s="7">
-        <v>36.96</v>
+        <v>46.2</v>
       </c>
       <c r="E83" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>45154</v>
+        <v>44705</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C84" s="7">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D84" s="7">
-        <v>25.74</v>
+        <v>29.7</v>
       </c>
       <c r="E84" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>45078</v>
+        <v>45103</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C85" s="7">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D85" s="7">
-        <v>33.880000000000003</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="E85" s="5">
         <v>13</v>
@@ -18339,373 +20155,373 @@
     </row>
     <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>44760</v>
+        <v>45195</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C86" s="7">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="D86" s="7">
-        <v>47.08</v>
+        <v>12.1</v>
       </c>
       <c r="E86" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>44793</v>
+        <v>44842</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C87" s="7">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="D87" s="7">
-        <v>16.72</v>
+        <v>30.8</v>
       </c>
       <c r="E87" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>45216</v>
+        <v>45015</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C88" s="7">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D88" s="7">
-        <v>32.119999999999997</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="E88" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>45219</v>
+        <v>44617</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C89" s="7">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="D89" s="7">
-        <v>41.36</v>
+        <v>26.18</v>
       </c>
       <c r="E89" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>45101</v>
+        <v>44880</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C90" s="7">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="D90" s="7">
-        <v>28.6</v>
+        <v>50.6</v>
       </c>
       <c r="E90" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>44862</v>
+        <v>45086</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C91" s="7">
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="D91" s="7">
-        <v>44.44</v>
+        <v>61.160000000000004</v>
       </c>
       <c r="E91" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>45014</v>
+        <v>44893</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C92" s="7">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="D92" s="7">
-        <v>15.4</v>
+        <v>40.92</v>
       </c>
       <c r="E92" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>44772</v>
+        <v>44820</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C93" s="7">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D93" s="7">
-        <v>21.78</v>
+        <v>44.22</v>
       </c>
       <c r="E93" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>44768</v>
+        <v>44926</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C94" s="7">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="D94" s="7">
-        <v>45.98</v>
+        <v>64.02</v>
       </c>
       <c r="E94" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>44809</v>
+        <v>44878</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C95" s="7">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D95" s="7">
-        <v>54.56</v>
+        <v>53.46</v>
       </c>
       <c r="E95" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>45032</v>
+        <v>44613</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C96" s="7">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="D96" s="7">
-        <v>38.28</v>
+        <v>19.36</v>
       </c>
       <c r="E96" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>45007</v>
+        <v>44824</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C97" s="7">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="D97" s="7">
-        <v>48.4</v>
+        <v>28.38</v>
       </c>
       <c r="E97" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>45165</v>
+        <v>45237</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C98" s="7">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D98" s="7">
-        <v>25.52</v>
+        <v>15.62</v>
       </c>
       <c r="E98" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>45206</v>
+        <v>45257</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C99" s="7">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="D99" s="7">
-        <v>38.28</v>
+        <v>23.32</v>
       </c>
       <c r="E99" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>45023</v>
+        <v>45191</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C100" s="7">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D100" s="7">
-        <v>34.979999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="E100" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>44584</v>
+        <v>44706</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C101" s="7">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="D101" s="7">
-        <v>20.9</v>
+        <v>45.32</v>
       </c>
       <c r="E101" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>44659</v>
+        <v>44845</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C102" s="7">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="D102" s="7">
-        <v>23.54</v>
+        <v>11.66</v>
       </c>
       <c r="E102" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>44900</v>
+        <v>44704</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C103" s="7">
-        <v>84</v>
+        <v>231</v>
       </c>
       <c r="D103" s="7">
-        <v>18.48</v>
+        <v>50.82</v>
       </c>
       <c r="E103" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>44931</v>
+        <v>45030</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C104" s="7">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="D104" s="7">
-        <v>13.64</v>
+        <v>51.04</v>
       </c>
       <c r="E104" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>44713</v>
+        <v>45157</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C105" s="7">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D105" s="7">
-        <v>62.48</v>
+        <v>65.78</v>
       </c>
       <c r="E105" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>45157</v>
+        <v>44854</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C106" s="7">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="D106" s="7">
-        <v>29.92</v>
+        <v>50.6</v>
       </c>
       <c r="E106" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>45180</v>
+        <v>44939</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C107" s="7">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D107" s="7">
-        <v>35.86</v>
+        <v>27.5</v>
       </c>
       <c r="E107" s="5">
         <v>12</v>
@@ -18713,129 +20529,129 @@
     </row>
     <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>44961</v>
+        <v>45086</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C108" s="7">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D108" s="7">
-        <v>26.84</v>
+        <v>32.78</v>
       </c>
       <c r="E108" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>45252</v>
+        <v>44625</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C109" s="7">
-        <v>122</v>
+        <v>251</v>
       </c>
       <c r="D109" s="7">
-        <v>26.84</v>
+        <v>55.22</v>
       </c>
       <c r="E109" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>45073</v>
+        <v>44607</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C110" s="7">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="D110" s="7">
-        <v>65.34</v>
+        <v>38.72</v>
       </c>
       <c r="E110" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>45014</v>
+        <v>45054</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C111" s="7">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D111" s="7">
-        <v>34.32</v>
+        <v>38.28</v>
       </c>
       <c r="E111" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>45215</v>
+        <v>44584</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C112" s="7">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="D112" s="7">
-        <v>64.239999999999995</v>
+        <v>24.42</v>
       </c>
       <c r="E112" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>44801</v>
+        <v>44567</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C113" s="7">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="D113" s="7">
-        <v>56.76</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="E113" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>45234</v>
+        <v>45018</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C114" s="7">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="D114" s="7">
-        <v>34.54</v>
+        <v>54.56</v>
       </c>
       <c r="E114" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>45013</v>
+        <v>44617</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C115" s="7">
         <v>119</v>
@@ -18849,33 +20665,33 @@
     </row>
     <row r="116" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>44596</v>
+        <v>44631</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C116" s="7">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="D116" s="7">
-        <v>29.04</v>
+        <v>48.62</v>
       </c>
       <c r="E116" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>44582</v>
+        <v>45011</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C117" s="7">
-        <v>295</v>
+        <v>118</v>
       </c>
       <c r="D117" s="7">
-        <v>64.900000000000006</v>
+        <v>25.96</v>
       </c>
       <c r="E117" s="5">
         <v>5</v>
@@ -18883,237 +20699,237 @@
     </row>
     <row r="118" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>44943</v>
+        <v>44793</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C118" s="7">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D118" s="7">
-        <v>12.76</v>
+        <v>22.88</v>
       </c>
       <c r="E118" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>45076</v>
+        <v>45237</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C119" s="7">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D119" s="7">
-        <v>29.7</v>
+        <v>23.54</v>
       </c>
       <c r="E119" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>44958</v>
+        <v>44583</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C120" s="7">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D120" s="7">
-        <v>51.48</v>
+        <v>50.38</v>
       </c>
       <c r="E120" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>45109</v>
+        <v>44805</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C121" s="7">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D121" s="7">
-        <v>22.66</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="E121" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>44870</v>
+        <v>44796</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C122" s="7">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D122" s="7">
-        <v>51.48</v>
+        <v>56.76</v>
       </c>
       <c r="E122" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>45087</v>
+        <v>44760</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C123" s="7">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D123" s="7">
-        <v>40.92</v>
+        <v>41.58</v>
       </c>
       <c r="E123" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>45100</v>
+        <v>45034</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C124" s="7">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="D124" s="7">
-        <v>46.2</v>
+        <v>53.46</v>
       </c>
       <c r="E124" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>44731</v>
+        <v>44997</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C125" s="7">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="D125" s="7">
-        <v>30.14</v>
+        <v>15.62</v>
       </c>
       <c r="E125" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>44705</v>
+        <v>45114</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C126" s="7">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="D126" s="7">
-        <v>29.7</v>
+        <v>53.68</v>
       </c>
       <c r="E126" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>45103</v>
+        <v>45010</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C127" s="7">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D127" s="7">
-        <v>36.299999999999997</v>
+        <v>29.04</v>
       </c>
       <c r="E127" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>44832</v>
+        <v>44898</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C128" s="7">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D128" s="7">
-        <v>50.82</v>
+        <v>53.9</v>
       </c>
       <c r="E128" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>45208</v>
+        <v>44986</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C129" s="7">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="D129" s="7">
-        <v>23.76</v>
+        <v>65.12</v>
       </c>
       <c r="E129" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>45195</v>
+        <v>44742</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C130" s="7">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D130" s="7">
-        <v>12.1</v>
+        <v>15.84</v>
       </c>
       <c r="E130" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>44814</v>
+        <v>45110</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C131" s="7">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="D131" s="7">
-        <v>20.46</v>
+        <v>58.52</v>
       </c>
       <c r="E131" s="5">
         <v>8</v>
@@ -19121,203 +20937,203 @@
     </row>
     <row r="132" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>44842</v>
+        <v>44588</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C132" s="7">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="D132" s="7">
-        <v>30.8</v>
+        <v>15.62</v>
       </c>
       <c r="E132" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>44782</v>
+        <v>44601</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C133" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D133" s="7">
-        <v>25.96</v>
+        <v>25.52</v>
       </c>
       <c r="E133" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>44947</v>
+        <v>44897</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C134" s="7">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="D134" s="7">
-        <v>21.12</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="E134" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>45015</v>
+        <v>45214</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C135" s="7">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="D135" s="7">
-        <v>36.299999999999997</v>
+        <v>23.98</v>
       </c>
       <c r="E135" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>44767</v>
+        <v>44952</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C136" s="7">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="D136" s="7">
-        <v>62.48</v>
+        <v>12.1</v>
       </c>
       <c r="E136" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>44617</v>
+        <v>44573</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C137" s="7">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="D137" s="7">
-        <v>26.18</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="E137" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>45009</v>
+        <v>45083</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C138" s="7">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="D138" s="7">
-        <v>18.260000000000002</v>
+        <v>40.04</v>
       </c>
       <c r="E138" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>44880</v>
+        <v>45069</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C139" s="7">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="D139" s="7">
-        <v>50.6</v>
+        <v>34.32</v>
       </c>
       <c r="E139" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>44690</v>
+        <v>44659</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C140" s="7">
-        <v>275</v>
+        <v>87</v>
       </c>
       <c r="D140" s="7">
-        <v>60.5</v>
+        <v>19.14</v>
       </c>
       <c r="E140" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>45086</v>
+        <v>44613</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C141" s="7">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="D141" s="7">
-        <v>61.160000000000004</v>
+        <v>23.1</v>
       </c>
       <c r="E141" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>44673</v>
+        <v>44714</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C142" s="7">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="D142" s="7">
-        <v>13.64</v>
+        <v>33.660000000000004</v>
       </c>
       <c r="E142" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>44893</v>
+        <v>44768</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C143" s="7">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="D143" s="7">
-        <v>40.92</v>
+        <v>47.08</v>
       </c>
       <c r="E143" s="5">
         <v>8</v>
@@ -19325,118 +21141,118 @@
     </row>
     <row r="144" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>45216</v>
+        <v>44678</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C144" s="7">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="D144" s="7">
-        <v>57.64</v>
+        <v>15.4</v>
       </c>
       <c r="E144" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>45239</v>
+        <v>44562</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C145" s="7">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="D145" s="7">
-        <v>52.14</v>
+        <v>37.4</v>
       </c>
       <c r="E145" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>44820</v>
+        <v>44581</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C146" s="7">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="D146" s="7">
-        <v>44.22</v>
+        <v>49.06</v>
       </c>
       <c r="E146" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>45014</v>
+        <v>45007</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C147" s="7">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="D147" s="7">
-        <v>60.72</v>
+        <v>36.96</v>
       </c>
       <c r="E147" s="5">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>44652</v>
+        <v>44831</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C148" s="7">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="D148" s="7">
-        <v>49.28</v>
+        <v>15.4</v>
       </c>
       <c r="E148" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>45057</v>
+        <v>44614</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C149" s="7">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="D149" s="7">
-        <v>65.78</v>
+        <v>36.08</v>
       </c>
       <c r="E149" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>44913</v>
+        <v>45194</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C150" s="7">
-        <v>263</v>
+        <v>108</v>
       </c>
       <c r="D150" s="7">
-        <v>57.86</v>
+        <v>23.76</v>
       </c>
       <c r="E150" s="5">
         <v>13</v>
@@ -19444,84 +21260,84 @@
     </row>
     <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>44821</v>
+        <v>45123</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C151" s="7">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="D151" s="7">
-        <v>58.3</v>
+        <v>35.64</v>
       </c>
       <c r="E151" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>44998</v>
+        <v>44892</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C152" s="7">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="D152" s="7">
-        <v>44.44</v>
+        <v>61.82</v>
       </c>
       <c r="E152" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>44926</v>
+        <v>44986</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C153" s="7">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="D153" s="7">
-        <v>64.02</v>
+        <v>32.78</v>
       </c>
       <c r="E153" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>44915</v>
+        <v>45261</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C154" s="7">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="D154" s="7">
-        <v>23.76</v>
+        <v>60.5</v>
       </c>
       <c r="E154" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>44949</v>
+        <v>44816</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C155" s="7">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="D155" s="7">
-        <v>16.28</v>
+        <v>44.44</v>
       </c>
       <c r="E155" s="5">
         <v>9</v>
@@ -19529,50 +21345,50 @@
     </row>
     <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>44878</v>
+        <v>44618</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C156" s="7">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="D156" s="7">
-        <v>53.46</v>
+        <v>60.72</v>
       </c>
       <c r="E156" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>44922</v>
+        <v>44774</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C157" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D157" s="7">
-        <v>11.66</v>
+        <v>13.86</v>
       </c>
       <c r="E157" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>44613</v>
+        <v>44753</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C158" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D158" s="7">
-        <v>19.36</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="E158" s="5">
         <v>6</v>
@@ -19580,577 +21396,577 @@
     </row>
     <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>44824</v>
+        <v>45173</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C159" s="7">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="D159" s="7">
-        <v>28.38</v>
+        <v>58.52</v>
       </c>
       <c r="E159" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>45237</v>
+        <v>44991</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C160" s="7">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D160" s="7">
-        <v>15.62</v>
+        <v>18.04</v>
       </c>
       <c r="E160" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>44839</v>
+        <v>44720</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C161" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D161" s="7">
-        <v>22.88</v>
+        <v>38.28</v>
       </c>
       <c r="E161" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>44839</v>
+        <v>44720</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C162" s="7">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D162" s="7">
-        <v>34.979999999999997</v>
+        <v>41.8</v>
       </c>
       <c r="E162" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>45033</v>
+        <v>44651</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C163" s="7">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D163" s="7">
-        <v>15.84</v>
+        <v>11</v>
       </c>
       <c r="E163" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>44832</v>
+        <v>44793</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C164" s="7">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="D164" s="7">
-        <v>51.48</v>
+        <v>16.72</v>
       </c>
       <c r="E164" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>44892</v>
+        <v>44862</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C165" s="7">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="D165" s="7">
-        <v>34.54</v>
+        <v>44.44</v>
       </c>
       <c r="E165" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>45257</v>
+        <v>45014</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C166" s="7">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="D166" s="7">
-        <v>23.32</v>
+        <v>15.4</v>
       </c>
       <c r="E166" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>45191</v>
+        <v>45165</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C167" s="7">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="D167" s="7">
-        <v>41.58</v>
+        <v>25.52</v>
       </c>
       <c r="E167" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>45052</v>
+        <v>44713</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C168" s="7">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="D168" s="7">
-        <v>34.1</v>
+        <v>62.48</v>
       </c>
       <c r="E168" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>44580</v>
+        <v>45157</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C169" s="7">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D169" s="7">
-        <v>24.2</v>
+        <v>29.92</v>
       </c>
       <c r="E169" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>44706</v>
+        <v>45215</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C170" s="7">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="D170" s="7">
-        <v>45.32</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="E170" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>45103</v>
+        <v>45234</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C171" s="7">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="D171" s="7">
-        <v>54.12</v>
+        <v>34.54</v>
       </c>
       <c r="E171" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>45209</v>
+        <v>44582</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C172" s="7">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="D172" s="7">
-        <v>38.72</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="E172" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>45082</v>
+        <v>45076</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C173" s="7">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="D173" s="7">
-        <v>15.84</v>
+        <v>29.7</v>
       </c>
       <c r="E173" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>44756</v>
+        <v>45109</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C174" s="7">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="D174" s="7">
-        <v>56.98</v>
+        <v>22.66</v>
       </c>
       <c r="E174" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>45228</v>
+        <v>44947</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C175" s="7">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="D175" s="7">
-        <v>46.2</v>
+        <v>21.12</v>
       </c>
       <c r="E175" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>44845</v>
+        <v>45009</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C176" s="7">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D176" s="7">
-        <v>11.66</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="E176" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>44622</v>
+        <v>45216</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C177" s="7">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D177" s="7">
-        <v>64.02</v>
+        <v>57.64</v>
       </c>
       <c r="E177" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>44704</v>
+        <v>45014</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C178" s="7">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="D178" s="7">
-        <v>50.82</v>
+        <v>60.72</v>
       </c>
       <c r="E178" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <v>44921</v>
+        <v>45057</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C179" s="7">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="D179" s="7">
-        <v>36.96</v>
+        <v>65.78</v>
       </c>
       <c r="E179" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>44947</v>
+        <v>44998</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C180" s="7">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D180" s="7">
-        <v>46.86</v>
+        <v>44.44</v>
       </c>
       <c r="E180" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>45030</v>
+        <v>44922</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C181" s="7">
-        <v>232</v>
+        <v>53</v>
       </c>
       <c r="D181" s="7">
-        <v>51.04</v>
+        <v>11.66</v>
       </c>
       <c r="E181" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>45063</v>
+        <v>44832</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C182" s="7">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D182" s="7">
-        <v>49.28</v>
+        <v>51.48</v>
       </c>
       <c r="E182" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>44698</v>
+        <v>44892</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C183" s="7">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D183" s="7">
-        <v>27.5</v>
+        <v>34.54</v>
       </c>
       <c r="E183" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>44791</v>
+        <v>45209</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C184" s="7">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D184" s="7">
-        <v>41.8</v>
+        <v>38.72</v>
       </c>
       <c r="E184" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>44899</v>
+        <v>44921</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C185" s="7">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D185" s="7">
-        <v>32.56</v>
+        <v>36.96</v>
       </c>
       <c r="E185" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>45157</v>
+        <v>44947</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C186" s="7">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="D186" s="7">
-        <v>65.78</v>
+        <v>46.86</v>
       </c>
       <c r="E186" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>44854</v>
+        <v>44783</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C187" s="7">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="D187" s="7">
-        <v>50.6</v>
+        <v>42.02</v>
       </c>
       <c r="E187" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>45199</v>
+        <v>44890</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C188" s="7">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D188" s="7">
-        <v>62.92</v>
+        <v>59.4</v>
       </c>
       <c r="E188" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>44851</v>
+        <v>44708</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C189" s="7">
-        <v>100</v>
+        <v>284</v>
       </c>
       <c r="D189" s="7">
-        <v>22</v>
+        <v>62.48</v>
       </c>
       <c r="E189" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>44783</v>
+        <v>44997</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C190" s="7">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="D190" s="7">
-        <v>42.02</v>
+        <v>16.5</v>
       </c>
       <c r="E190" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>44939</v>
+        <v>45108</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C191" s="7">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="D191" s="7">
-        <v>27.5</v>
+        <v>61.82</v>
       </c>
       <c r="E191" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>44849</v>
+        <v>44623</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C192" s="7">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="D192" s="7">
-        <v>49.06</v>
+        <v>32.78</v>
       </c>
       <c r="E192" s="5">
         <v>12</v>
@@ -20158,101 +21974,101 @@
     </row>
     <row r="193" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>44973</v>
+        <v>44767</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C193" s="7">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="D193" s="7">
-        <v>33.660000000000004</v>
+        <v>60.5</v>
       </c>
       <c r="E193" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>44890</v>
+        <v>45071</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C194" s="7">
-        <v>270</v>
+        <v>116</v>
       </c>
       <c r="D194" s="7">
-        <v>59.4</v>
+        <v>25.52</v>
       </c>
       <c r="E194" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>44707</v>
+        <v>45236</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C195" s="7">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="D195" s="7">
-        <v>26.62</v>
+        <v>39.82</v>
       </c>
       <c r="E195" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>44813</v>
+        <v>44933</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C196" s="7">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="D196" s="7">
-        <v>17.16</v>
+        <v>37.18</v>
       </c>
       <c r="E196" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>45086</v>
+        <v>44718</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C197" s="7">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D197" s="7">
-        <v>32.78</v>
+        <v>34.54</v>
       </c>
       <c r="E197" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>44955</v>
+        <v>45233</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C198" s="7">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D198" s="7">
-        <v>14.08</v>
+        <v>17.16</v>
       </c>
       <c r="E198" s="5">
         <v>9</v>
@@ -20260,118 +22076,118 @@
     </row>
     <row r="199" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>44708</v>
+        <v>45178</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>564</v>
       </c>
       <c r="C199" s="7">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="D199" s="7">
-        <v>62.48</v>
+        <v>14.52</v>
       </c>
       <c r="E199" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>44576</v>
+        <v>44735</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C200" s="7">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="D200" s="7">
-        <v>44.44</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E200" s="5">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>44625</v>
+        <v>45018</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C201" s="7">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="D201" s="7">
-        <v>55.22</v>
+        <v>16.28</v>
       </c>
       <c r="E201" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>44607</v>
+        <v>45173</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C202" s="7">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D202" s="7">
-        <v>38.72</v>
+        <v>41.14</v>
       </c>
       <c r="E202" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>45054</v>
+        <v>44781</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C203" s="7">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D203" s="7">
-        <v>38.28</v>
+        <v>33.660000000000004</v>
       </c>
       <c r="E203" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>45216</v>
+        <v>45255</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C204" s="7">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="D204" s="7">
-        <v>28.6</v>
+        <v>62.92</v>
       </c>
       <c r="E204" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>44689</v>
+        <v>45175</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C205" s="7">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D205" s="7">
-        <v>11.44</v>
+        <v>26.18</v>
       </c>
       <c r="E205" s="5">
         <v>12</v>
@@ -20379,16 +22195,16 @@
     </row>
     <row r="206" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>44584</v>
+        <v>45247</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C206" s="7">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D206" s="7">
-        <v>24.42</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="E206" s="5">
         <v>8</v>
@@ -20396,16 +22212,16 @@
     </row>
     <row r="207" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>45062</v>
+        <v>44849</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C207" s="7">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D207" s="7">
-        <v>22.22</v>
+        <v>12.98</v>
       </c>
       <c r="E207" s="5">
         <v>15</v>
@@ -20413,203 +22229,203 @@
     </row>
     <row r="208" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>44737</v>
+        <v>44573</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C208" s="7">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="D208" s="7">
-        <v>21.56</v>
+        <v>40.92</v>
       </c>
       <c r="E208" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>44567</v>
+        <v>44674</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C209" s="7">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="D209" s="7">
-        <v>64.680000000000007</v>
+        <v>46.42</v>
       </c>
       <c r="E209" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>44872</v>
+        <v>45062</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C210" s="7">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D210" s="7">
-        <v>18.7</v>
+        <v>14.96</v>
       </c>
       <c r="E210" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>45018</v>
+        <v>45015</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C211" s="7">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D211" s="7">
-        <v>54.56</v>
+        <v>47.96</v>
       </c>
       <c r="E211" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>44997</v>
+        <v>44734</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C212" s="7">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D212" s="7">
-        <v>16.5</v>
+        <v>23.32</v>
       </c>
       <c r="E212" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>44617</v>
+        <v>44640</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C213" s="7">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D213" s="7">
-        <v>26.18</v>
+        <v>33</v>
       </c>
       <c r="E213" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>44978</v>
+        <v>44747</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C214" s="7">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="D214" s="7">
-        <v>36.08</v>
+        <v>19.8</v>
       </c>
       <c r="E214" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <v>45108</v>
+        <v>44723</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C215" s="7">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="D215" s="7">
-        <v>61.82</v>
+        <v>27.06</v>
       </c>
       <c r="E215" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>44623</v>
+        <v>45235</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C216" s="7">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="D216" s="7">
-        <v>32.78</v>
+        <v>19.36</v>
       </c>
       <c r="E216" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>44631</v>
+        <v>45255</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C217" s="7">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="D217" s="7">
-        <v>48.62</v>
+        <v>33.44</v>
       </c>
       <c r="E217" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>44710</v>
+        <v>44809</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C218" s="7">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="D218" s="7">
-        <v>22.88</v>
+        <v>54.56</v>
       </c>
       <c r="E218" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>45011</v>
+        <v>44900</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C219" s="7">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D219" s="7">
-        <v>25.96</v>
+        <v>18.48</v>
       </c>
       <c r="E219" s="5">
         <v>5</v>
@@ -20617,441 +22433,441 @@
     </row>
     <row r="220" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>44950</v>
+        <v>44731</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C220" s="7">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="D220" s="7">
-        <v>63.58</v>
+        <v>30.14</v>
       </c>
       <c r="E220" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>44855</v>
+        <v>44814</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C221" s="7">
-        <v>297</v>
+        <v>93</v>
       </c>
       <c r="D221" s="7">
-        <v>65.34</v>
+        <v>20.46</v>
       </c>
       <c r="E221" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>45050</v>
+        <v>44767</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C222" s="7">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="D222" s="7">
-        <v>52.14</v>
+        <v>62.48</v>
       </c>
       <c r="E222" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>44793</v>
+        <v>44690</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C223" s="7">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="D223" s="7">
-        <v>22.88</v>
+        <v>60.5</v>
       </c>
       <c r="E223" s="5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>45237</v>
+        <v>45103</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C224" s="7">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="D224" s="7">
-        <v>23.54</v>
+        <v>54.12</v>
       </c>
       <c r="E224" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>45197</v>
+        <v>45228</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C225" s="7">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="D225" s="7">
-        <v>54.34</v>
+        <v>46.2</v>
       </c>
       <c r="E225" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>45108</v>
+        <v>45063</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C226" s="7">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D226" s="7">
-        <v>56.1</v>
+        <v>49.28</v>
       </c>
       <c r="E226" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>44819</v>
+        <v>44576</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C227" s="7">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="D227" s="7">
-        <v>55.44</v>
+        <v>44.44</v>
       </c>
       <c r="E227" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>44583</v>
+        <v>44689</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C228" s="7">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="D228" s="7">
-        <v>50.38</v>
+        <v>11.44</v>
       </c>
       <c r="E228" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>44805</v>
+        <v>45062</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C229" s="7">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D229" s="7">
-        <v>20.239999999999998</v>
+        <v>22.22</v>
       </c>
       <c r="E229" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>44568</v>
+        <v>44855</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C230" s="7">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="D230" s="7">
-        <v>20.9</v>
+        <v>65.34</v>
       </c>
       <c r="E230" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>44767</v>
+        <v>45108</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C231" s="7">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D231" s="7">
-        <v>60.5</v>
+        <v>56.1</v>
       </c>
       <c r="E231" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>44648</v>
+        <v>44819</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C232" s="7">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D232" s="7">
-        <v>56.98</v>
+        <v>55.44</v>
       </c>
       <c r="E232" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <v>44796</v>
+        <v>44648</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C233" s="7">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D233" s="7">
-        <v>56.76</v>
+        <v>56.98</v>
       </c>
       <c r="E233" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <v>44882</v>
+        <v>45190</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C234" s="7">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D234" s="7">
-        <v>44</v>
+        <v>39.82</v>
       </c>
       <c r="E234" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <v>44760</v>
+        <v>44620</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C235" s="7">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D235" s="7">
-        <v>41.58</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="E235" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <v>44948</v>
+        <v>44805</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C236" s="7">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D236" s="7">
-        <v>41.36</v>
+        <v>42.02</v>
       </c>
       <c r="E236" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <v>45190</v>
+        <v>44781</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>566</v>
       </c>
       <c r="C237" s="7">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="D237" s="7">
-        <v>39.82</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="E237" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>44911</v>
+        <v>44784</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C238" s="7">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="D238" s="7">
-        <v>60.5</v>
+        <v>40.04</v>
       </c>
       <c r="E238" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>45034</v>
+        <v>44850</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C239" s="7">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="D239" s="7">
-        <v>53.46</v>
+        <v>11</v>
       </c>
       <c r="E239" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>44997</v>
+        <v>45072</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C240" s="7">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D240" s="7">
-        <v>15.62</v>
+        <v>20.46</v>
       </c>
       <c r="E240" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>44927</v>
+        <v>45050</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C241" s="7">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D241" s="7">
-        <v>17.82</v>
+        <v>16.72</v>
       </c>
       <c r="E241" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>45071</v>
+        <v>44945</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C242" s="7">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="D242" s="7">
-        <v>25.52</v>
+        <v>44.660000000000004</v>
       </c>
       <c r="E242" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>45114</v>
+        <v>44684</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C243" s="7">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="D243" s="7">
-        <v>53.68</v>
+        <v>36.96</v>
       </c>
       <c r="E243" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>45010</v>
+        <v>44686</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C244" s="7">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="D244" s="7">
-        <v>29.04</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="E244" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <v>44898</v>
+        <v>45101</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C245" s="7">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="D245" s="7">
-        <v>53.9</v>
+        <v>62.92</v>
       </c>
       <c r="E245" s="5">
         <v>14</v>
@@ -21059,945 +22875,945 @@
     </row>
     <row r="246" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <v>45236</v>
+        <v>45093</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C246" s="7">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="D246" s="7">
-        <v>39.82</v>
+        <v>24.86</v>
       </c>
       <c r="E246" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <v>44667</v>
+        <v>45133</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>568</v>
       </c>
       <c r="C247" s="7">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D247" s="7">
-        <v>26.84</v>
+        <v>22.66</v>
       </c>
       <c r="E247" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <v>44644</v>
+        <v>45185</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C248" s="7">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="D248" s="7">
-        <v>46.64</v>
+        <v>19.36</v>
       </c>
       <c r="E248" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <v>44933</v>
+        <v>45023</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C249" s="7">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D249" s="7">
-        <v>37.18</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="E249" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>44806</v>
+        <v>44958</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C250" s="7">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="D250" s="7">
-        <v>17.82</v>
+        <v>51.48</v>
       </c>
       <c r="E250" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <v>44718</v>
+        <v>44821</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C251" s="7">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="D251" s="7">
-        <v>34.54</v>
+        <v>58.3</v>
       </c>
       <c r="E251" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>44773</v>
+        <v>45033</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C252" s="7">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="D252" s="7">
-        <v>56.32</v>
+        <v>15.84</v>
       </c>
       <c r="E252" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <v>44986</v>
+        <v>45082</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C253" s="7">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="D253" s="7">
-        <v>65.12</v>
+        <v>15.84</v>
       </c>
       <c r="E253" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <v>44742</v>
+        <v>44622</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C254" s="7">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="D254" s="7">
-        <v>15.84</v>
+        <v>64.02</v>
       </c>
       <c r="E254" s="5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>45190</v>
+        <v>44698</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C255" s="7">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D255" s="7">
-        <v>26.18</v>
+        <v>27.5</v>
       </c>
       <c r="E255" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>44620</v>
+        <v>45199</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C256" s="7">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="D256" s="7">
-        <v>37.619999999999997</v>
+        <v>62.92</v>
       </c>
       <c r="E256" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <v>44869</v>
+        <v>44872</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C257" s="7">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="D257" s="7">
-        <v>47.3</v>
+        <v>18.7</v>
       </c>
       <c r="E257" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>45110</v>
+        <v>44911</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C258" s="7">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D258" s="7">
-        <v>58.52</v>
+        <v>60.5</v>
       </c>
       <c r="E258" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>44588</v>
+        <v>44667</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C259" s="7">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D259" s="7">
-        <v>15.62</v>
+        <v>26.84</v>
       </c>
       <c r="E259" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>44805</v>
+        <v>44639</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C260" s="7">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="D260" s="7">
-        <v>42.02</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E260" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>44781</v>
+        <v>44872</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C261" s="7">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="D261" s="7">
-        <v>16.940000000000001</v>
+        <v>29.48</v>
       </c>
       <c r="E261" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>44601</v>
+        <v>44746</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C262" s="7">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="D262" s="7">
-        <v>25.52</v>
+        <v>34.76</v>
       </c>
       <c r="E262" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <v>44897</v>
+        <v>44826</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C263" s="7">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="D263" s="7">
-        <v>64.680000000000007</v>
+        <v>38.72</v>
       </c>
       <c r="E263" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>44654</v>
+        <v>45216</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C264" s="7">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c r="D264" s="7">
-        <v>27.72</v>
+        <v>60.28</v>
       </c>
       <c r="E264" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>44784</v>
+        <v>45257</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C265" s="7">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="D265" s="7">
-        <v>40.04</v>
+        <v>55.88</v>
       </c>
       <c r="E265" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>45214</v>
+        <v>44863</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C266" s="7">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="D266" s="7">
-        <v>23.98</v>
+        <v>44.660000000000004</v>
       </c>
       <c r="E266" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <v>44625</v>
+        <v>44973</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>563</v>
       </c>
       <c r="C267" s="7">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="D267" s="7">
-        <v>45.98</v>
+        <v>55.660000000000004</v>
       </c>
       <c r="E267" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>45233</v>
+        <v>44824</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C268" s="7">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D268" s="7">
-        <v>17.16</v>
+        <v>24.64</v>
       </c>
       <c r="E268" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <v>44952</v>
+        <v>44601</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C269" s="7">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="D269" s="7">
-        <v>12.1</v>
+        <v>42.9</v>
       </c>
       <c r="E269" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <v>44831</v>
+        <v>45203</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C270" s="7">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="D270" s="7">
-        <v>52.58</v>
+        <v>36.74</v>
       </c>
       <c r="E270" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
-        <v>44850</v>
+        <v>44775</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C271" s="7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D271" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E271" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>44639</v>
+        <v>44867</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C272" s="7">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="D272" s="7">
-        <v>17.600000000000001</v>
+        <v>29.04</v>
       </c>
       <c r="E272" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>44573</v>
+        <v>44716</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C273" s="7">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="D273" s="7">
-        <v>64.459999999999994</v>
+        <v>20.02</v>
       </c>
       <c r="E273" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>45178</v>
+        <v>45146</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C274" s="7">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D274" s="7">
-        <v>14.52</v>
+        <v>30.14</v>
       </c>
       <c r="E274" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>45083</v>
+        <v>44740</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C275" s="7">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D275" s="7">
-        <v>40.04</v>
+        <v>38.06</v>
       </c>
       <c r="E275" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
-        <v>45069</v>
+        <v>45219</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C276" s="7">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D276" s="7">
-        <v>34.32</v>
+        <v>41.36</v>
       </c>
       <c r="E276" s="5">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
-        <v>44659</v>
+        <v>45101</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C277" s="7">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D277" s="7">
-        <v>19.14</v>
+        <v>28.6</v>
       </c>
       <c r="E277" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
-        <v>44613</v>
+        <v>45206</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C278" s="7">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="D278" s="7">
-        <v>23.1</v>
+        <v>38.28</v>
       </c>
       <c r="E278" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>44735</v>
+        <v>45252</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C279" s="7">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D279" s="7">
-        <v>35.200000000000003</v>
+        <v>26.84</v>
       </c>
       <c r="E279" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
-        <v>45072</v>
+        <v>45014</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C280" s="7">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D280" s="7">
-        <v>20.46</v>
+        <v>34.32</v>
       </c>
       <c r="E280" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
-        <v>44991</v>
+        <v>45013</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C281" s="7">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D281" s="7">
-        <v>18.920000000000002</v>
+        <v>26.18</v>
       </c>
       <c r="E281" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
-        <v>45018</v>
+        <v>44596</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C282" s="7">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="D282" s="7">
-        <v>16.28</v>
+        <v>29.04</v>
       </c>
       <c r="E282" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>44872</v>
+        <v>45087</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C283" s="7">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="D283" s="7">
-        <v>29.48</v>
+        <v>40.92</v>
       </c>
       <c r="E283" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>44872</v>
+        <v>44782</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>563</v>
       </c>
       <c r="C284" s="7">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D284" s="7">
-        <v>11.66</v>
+        <v>25.96</v>
       </c>
       <c r="E284" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>45173</v>
+        <v>44652</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C285" s="7">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="D285" s="7">
-        <v>41.14</v>
+        <v>49.28</v>
       </c>
       <c r="E285" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
-        <v>44781</v>
+        <v>44913</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C286" s="7">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="D286" s="7">
-        <v>33.660000000000004</v>
+        <v>57.86</v>
       </c>
       <c r="E286" s="5">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
-        <v>44714</v>
+        <v>44915</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C287" s="7">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D287" s="7">
-        <v>33.660000000000004</v>
+        <v>23.76</v>
       </c>
       <c r="E287" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
-        <v>44738</v>
+        <v>45052</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>563</v>
       </c>
       <c r="C288" s="7">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D288" s="7">
-        <v>23.1</v>
+        <v>34.1</v>
       </c>
       <c r="E288" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
-        <v>44768</v>
+        <v>44580</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C289" s="7">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="D289" s="7">
-        <v>47.08</v>
+        <v>24.2</v>
       </c>
       <c r="E289" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>45144</v>
+        <v>44756</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C290" s="7">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="D290" s="7">
-        <v>23.32</v>
+        <v>56.98</v>
       </c>
       <c r="E290" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>45255</v>
+        <v>44791</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C291" s="7">
-        <v>286</v>
+        <v>190</v>
       </c>
       <c r="D291" s="7">
-        <v>62.92</v>
+        <v>41.8</v>
       </c>
       <c r="E291" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>44678</v>
+        <v>44849</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C292" s="7">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="D292" s="7">
-        <v>15.4</v>
+        <v>49.06</v>
       </c>
       <c r="E292" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>44690</v>
+        <v>44973</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>563</v>
       </c>
       <c r="C293" s="7">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D293" s="7">
-        <v>17.38</v>
+        <v>33.660000000000004</v>
       </c>
       <c r="E293" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>44562</v>
+        <v>44813</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C294" s="7">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="D294" s="7">
-        <v>37.4</v>
+        <v>17.16</v>
       </c>
       <c r="E294" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>44909</v>
+        <v>45216</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>563</v>
       </c>
       <c r="C295" s="7">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="D295" s="7">
-        <v>50.38</v>
+        <v>28.6</v>
       </c>
       <c r="E295" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
-        <v>44581</v>
+        <v>44978</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C296" s="7">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D296" s="7">
-        <v>49.06</v>
+        <v>36.08</v>
       </c>
       <c r="E296" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
-        <v>44967</v>
+        <v>44950</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C297" s="7">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="D297" s="7">
-        <v>58.74</v>
+        <v>63.58</v>
       </c>
       <c r="E297" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
-        <v>44746</v>
+        <v>44882</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C298" s="7">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D298" s="7">
-        <v>34.76</v>
+        <v>44</v>
       </c>
       <c r="E298" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
-        <v>44679</v>
+        <v>44927</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C299" s="7">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="D299" s="7">
-        <v>51.92</v>
+        <v>17.82</v>
       </c>
       <c r="E299" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
-        <v>45007</v>
+        <v>44644</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C300" s="7">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D300" s="7">
-        <v>36.96</v>
+        <v>46.64</v>
       </c>
       <c r="E300" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
-        <v>45175</v>
+        <v>45190</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C301" s="7">
         <v>119</v>
@@ -22006,89 +23822,89 @@
         <v>26.18</v>
       </c>
       <c r="E301" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
-        <v>44890</v>
+        <v>44625</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>563</v>
       </c>
       <c r="C302" s="7">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="D302" s="7">
-        <v>25.080000000000002</v>
+        <v>45.98</v>
       </c>
       <c r="E302" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
-        <v>45247</v>
+        <v>44872</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C303" s="7">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="D303" s="7">
-        <v>32.340000000000003</v>
+        <v>11.66</v>
       </c>
       <c r="E303" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
-        <v>44826</v>
+        <v>44738</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C304" s="7">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="D304" s="7">
-        <v>38.72</v>
+        <v>23.1</v>
       </c>
       <c r="E304" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
-        <v>44831</v>
+        <v>44690</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C305" s="7">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D305" s="7">
-        <v>15.4</v>
+        <v>17.38</v>
       </c>
       <c r="E305" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
-        <v>44786</v>
+        <v>44909</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>563</v>
       </c>
       <c r="C306" s="7">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D306" s="7">
-        <v>45.54</v>
+        <v>50.38</v>
       </c>
       <c r="E306" s="5">
         <v>6</v>
@@ -22096,39 +23912,42 @@
     </row>
     <row r="307" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
-        <v>44614</v>
+        <v>44890</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C307" s="7">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="D307" s="7">
-        <v>36.08</v>
+        <v>25.080000000000002</v>
       </c>
       <c r="E307" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
-        <v>45050</v>
+        <v>44786</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C308" s="7">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="D308" s="7">
-        <v>16.72</v>
+        <v>45.54</v>
       </c>
       <c r="E308" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E308">
+    <sortCondition ref="B4:B308"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
@@ -22152,7 +23971,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22294,6 +24113,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Excel 365 Intermediate Example File.xlsx
+++ b/Excel 365 Intermediate Example File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyectos_Portafolio\Excel\Aprendizaje_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28D7958-59B8-45D8-AB2A-323D7E346C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED548B-9C9F-447C-AFCE-1996D51914BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creating Tables" sheetId="21" r:id="rId1"/>
@@ -24,30 +24,44 @@
     <sheet name="Charts" sheetId="8" r:id="rId9"/>
     <sheet name="Sparklines" sheetId="14" r:id="rId10"/>
     <sheet name="Pivot Table" sheetId="9" r:id="rId11"/>
-    <sheet name="Data Validation" sheetId="13" r:id="rId12"/>
-    <sheet name="Conditional Format" sheetId="28" r:id="rId13"/>
-    <sheet name="Linking Data" sheetId="16" r:id="rId14"/>
+    <sheet name="Pivot_Table_Result" sheetId="30" r:id="rId12"/>
+    <sheet name="Data Validation" sheetId="13" r:id="rId13"/>
+    <sheet name="Conditional Format" sheetId="28" r:id="rId14"/>
+    <sheet name="Linking Data" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Filtering!$A$3:$K$97</definedName>
-    <definedName name="Gross_Margin" localSheetId="11">#REF!</definedName>
+    <definedName name="Gross_Margin" localSheetId="12">#REF!</definedName>
     <definedName name="Gross_Margin" localSheetId="6">#REF!</definedName>
     <definedName name="Gross_Margin">#REF!</definedName>
-    <definedName name="List" localSheetId="11">#REF!</definedName>
+    <definedName name="List" localSheetId="12">#REF!</definedName>
     <definedName name="List" localSheetId="6">#REF!</definedName>
     <definedName name="List">#REF!</definedName>
     <definedName name="SegmentaciónDeDatos_DEPT">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_DIVISION">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Month">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Region">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Salesperson">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId16"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId17"/>
+        <x14:slicerCache r:id="rId18"/>
+        <x14:slicerCache r:id="rId19"/>
+      </x14:slicerCaches>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId15"/>
-        <x14:slicerCache r:id="rId16"/>
+        <x14:slicerCache r:id="rId20"/>
+        <x14:slicerCache r:id="rId21"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -89,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="778">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2411,13 +2425,25 @@
   </si>
   <si>
     <t>Trends</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Suma de Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2426,6 +2452,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -2940,7 +2967,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
@@ -3051,6 +3078,13 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
@@ -3093,24 +3127,24 @@
     <cellStyle name="Título 2" xfId="17" builtinId="17"/>
     <cellStyle name="Título 3" xfId="19" builtinId="18"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="40">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="_-* #,##0.0\ &quot;€&quot;_-;\-* #,##0.0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="_-* #,##0.0\ &quot;€&quot;_-;\-* #,##0.0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -3204,6 +3238,24 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4425,7 +4477,655 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel 365 Intermediate Example File.xlsx]Pivot_Table_Result!TablaDinámica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot_Table_Result!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot_Table_Result!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Andy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot_Table_Result!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0\ "€"_-;\-* #,##0\ "€"_-;_-* "-"??\ "€"_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>201155.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3188-467D-A1BE-516C9E552A2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot_Table_Result!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>North</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot_Table_Result!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Andy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot_Table_Result!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0\ "€"_-;\-* #,##0\ "€"_-;_-* "-"??\ "€"_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>79479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248190.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3188-467D-A1BE-516C9E552A2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivot_Table_Result!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivot_Table_Result!$A$5:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Andy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivot_Table_Result!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0\ "€"_-;\-* #,##0\ "€"_-;_-* "-"??\ "€"_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>84449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>272687.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87056.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3188-467D-A1BE-516C9E552A2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="297862352"/>
+        <c:axId val="295931168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="297862352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295931168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="295931168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297862352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4961,6 +5661,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
@@ -4976,8 +6179,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="DIVISION">
@@ -5000,7 +6203,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5054,8 +6257,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="DEPT">
@@ -5078,7 +6281,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5163,7 +6366,2058 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F15431-45F7-F338-42A9-266E232D7A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Month">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD17A9-EA60-EBB9-CC84-7D199304CDAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Month"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1123950" y="2619374"/>
+              <a:ext cx="1828800" cy="1466851"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Salesperson">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12AE51EC-71BB-F084-A31A-0AF9066FFF9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Salesperson"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2066925" y="1457324"/>
+              <a:ext cx="1828800" cy="1095375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Region">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF8486D-C3CD-AE2B-4402-4E11F127665A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="76200" y="1466850"/>
+              <a:ext cx="1828800" cy="1066800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368299</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770C1DE2-23CB-87D1-0F0B-E387DA48A882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="1400175"/>
+          <a:ext cx="1054099" cy="1054099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Eduard" refreshedDate="45494.647286921296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="164" xr:uid="{0FF402E2-C36F-4848-8DBB-570F871D88C6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A4:G168" sheet="Pivot Table"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="12">
+        <s v="January"/>
+        <s v="February"/>
+        <s v="March"/>
+        <s v="April"/>
+        <s v="May"/>
+        <s v="June"/>
+        <s v="July"/>
+        <s v="August"/>
+        <s v="September"/>
+        <s v="October"/>
+        <s v="November"/>
+        <s v="December"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2022" maxValue="2023"/>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Salesperson" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Julia"/>
+        <s v="Paul"/>
+        <s v="Andy"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="North"/>
+        <s v="Central"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sales" numFmtId="169">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1594" maxValue="17812"/>
+    </cacheField>
+    <cacheField name="Units" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1537" maxValue="8971"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1828173918"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="164">
+  <r>
+    <x v="0"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6356"/>
+    <n v="3178"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8346"/>
+    <n v="5564"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2211"/>
+    <n v="2211"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3160"/>
+    <n v="1580"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7204"/>
+    <n v="7204"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="13246"/>
+    <n v="6623"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10390.5"/>
+    <n v="6927"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="7281"/>
+    <n v="7281"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="14678"/>
+    <n v="7339"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4046"/>
+    <n v="4046"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11044"/>
+    <n v="5522"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7755"/>
+    <n v="5170"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3535"/>
+    <n v="3535"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8818"/>
+    <n v="4409"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4085"/>
+    <n v="4085"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14598"/>
+    <n v="7299"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9486"/>
+    <n v="6324"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2823"/>
+    <n v="2823"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3954"/>
+    <n v="1977"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3785"/>
+    <n v="3785"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10612"/>
+    <n v="5306"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="6313.5"/>
+    <n v="4209"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2164"/>
+    <n v="2164"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12328"/>
+    <n v="6164"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6516"/>
+    <n v="6516"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="14960"/>
+    <n v="7480"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3534"/>
+    <n v="2356"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5332"/>
+    <n v="5332"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="13972"/>
+    <n v="6986"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6741"/>
+    <n v="6741"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="17370"/>
+    <n v="8685"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="10815"/>
+    <n v="7210"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5429"/>
+    <n v="5429"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="14358"/>
+    <n v="7179"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5988"/>
+    <n v="5988"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="17092"/>
+    <n v="8546"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4596"/>
+    <n v="3064"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4397"/>
+    <n v="4397"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9152"/>
+    <n v="4576"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6403"/>
+    <n v="6403"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3560"/>
+    <n v="1780"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5672"/>
+    <n v="2836"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12615"/>
+    <n v="8410"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5914"/>
+    <n v="5914"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="15494"/>
+    <n v="7747"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3397"/>
+    <n v="3397"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6040"/>
+    <n v="3020"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3127.5"/>
+    <n v="2085"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4671"/>
+    <n v="4671"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8248"/>
+    <n v="4124"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8712"/>
+    <n v="8712"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="9710"/>
+    <n v="4855"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4819.5"/>
+    <n v="3213"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8028"/>
+    <n v="8028"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="15602"/>
+    <n v="7801"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8614"/>
+    <n v="8614"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17812"/>
+    <n v="8906"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="11697"/>
+    <n v="7798"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3963"/>
+    <n v="3963"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4768"/>
+    <n v="2384"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="6077"/>
+    <n v="6077"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3326"/>
+    <n v="1663"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11511"/>
+    <n v="7674"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6309"/>
+    <n v="6309"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15222"/>
+    <n v="7611"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8006"/>
+    <n v="8006"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="14578"/>
+    <n v="7289"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2305.5"/>
+    <n v="1537"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4494"/>
+    <n v="4494"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10442"/>
+    <n v="5221"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1597"/>
+    <n v="1597"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="17234"/>
+    <n v="8617"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6423"/>
+    <n v="4282"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6358"/>
+    <n v="6358"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12240"/>
+    <n v="6120"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3352"/>
+    <n v="3352"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="6576"/>
+    <n v="3288"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2022"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4194"/>
+    <n v="2796"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2022"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2759"/>
+    <n v="2759"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8970"/>
+    <n v="4485"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2022"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8971"/>
+    <n v="8971"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2022"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3164"/>
+    <n v="1582"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6954"/>
+    <n v="3477"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6916.5"/>
+    <n v="4611"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3962"/>
+    <n v="3962"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="14606"/>
+    <n v="7303"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4938"/>
+    <n v="4938"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="9422"/>
+    <n v="4711"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4672.5"/>
+    <n v="3115"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="7426"/>
+    <n v="7426"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10204"/>
+    <n v="5102"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8044"/>
+    <n v="8044"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="5394"/>
+    <n v="2697"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="11998.5"/>
+    <n v="7999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2532"/>
+    <n v="2532"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4452"/>
+    <n v="2226"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4704"/>
+    <n v="4704"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17180"/>
+    <n v="8590"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8317.5"/>
+    <n v="5545"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4466"/>
+    <n v="4466"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7204"/>
+    <n v="3602"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="4527"/>
+    <n v="4527"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5040"/>
+    <n v="2520"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="10089"/>
+    <n v="6726"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2849"/>
+    <n v="2849"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7216"/>
+    <n v="3608"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8923"/>
+    <n v="8923"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11448"/>
+    <n v="5724"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="13143"/>
+    <n v="8762"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="6391"/>
+    <n v="6391"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="7278"/>
+    <n v="3639"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8026"/>
+    <n v="8026"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="4728"/>
+    <n v="2364"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="10386"/>
+    <n v="6924"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8005"/>
+    <n v="8005"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3262"/>
+    <n v="1631"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="8760"/>
+    <n v="8760"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3656"/>
+    <n v="1828"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5364"/>
+    <n v="3576"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3603"/>
+    <n v="3603"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15218"/>
+    <n v="7609"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="5049"/>
+    <n v="5049"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3106"/>
+    <n v="1553"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15122"/>
+    <n v="7561"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3769.5"/>
+    <n v="2513"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8688"/>
+    <n v="8688"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12050"/>
+    <n v="6025"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4696"/>
+    <n v="4696"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3178"/>
+    <n v="1589"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3030"/>
+    <n v="2020"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3236"/>
+    <n v="3236"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="6670"/>
+    <n v="3335"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="4712"/>
+    <n v="4712"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="14938"/>
+    <n v="7469"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="11343"/>
+    <n v="7562"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8593"/>
+    <n v="8593"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="15646"/>
+    <n v="7823"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5017"/>
+    <n v="5017"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11072"/>
+    <n v="5536"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7648.5"/>
+    <n v="5099"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1594"/>
+    <n v="1594"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10180"/>
+    <n v="5090"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5555"/>
+    <n v="5555"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="14004"/>
+    <n v="7002"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="5211"/>
+    <n v="3474"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2902"/>
+    <n v="2902"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5108"/>
+    <n v="2554"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2336"/>
+    <n v="2336"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3940"/>
+    <n v="1970"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5847"/>
+    <n v="3898"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4594"/>
+    <n v="4594"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="16526"/>
+    <n v="8263"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3897"/>
+    <n v="3897"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="10846"/>
+    <n v="5423"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="12088.5"/>
+    <n v="8059"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7187"/>
+    <n v="7187"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="16976"/>
+    <n v="8488"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="6302"/>
+    <n v="6302"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="7266"/>
+    <n v="3633"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2023"/>
+    <s v="Fries"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12210"/>
+    <n v="8140"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2023"/>
+    <s v="Hot Dogs"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2740"/>
+    <n v="2740"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5384"/>
+    <n v="2692"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2023"/>
+    <s v="Ice Cream"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8819"/>
+    <n v="8819"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2023"/>
+    <s v="Burgers"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="16060"/>
+    <n v="8030"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D792724F-C287-4C0F-8EEC-7884184FF7E1}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="169" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Sales" fld="5" baseField="0" baseItem="0" numFmtId="173"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Month" xr10:uid="{88B00820-F27A-4844-9ADE-17A43E2AB3C5}" sourceName="Month">
+  <pivotTables>
+    <pivotTable tabId="30" name="TablaDinámica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1828173918">
+      <items count="12">
+        <i x="4" s="1"/>
+        <i x="3" s="1"/>
+        <i x="7" s="1"/>
+        <i x="11" s="1"/>
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="6" s="1"/>
+        <i x="5" s="1"/>
+        <i x="2" s="1"/>
+        <i x="10" s="1"/>
+        <i x="9" s="1"/>
+        <i x="8" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Salesperson" xr10:uid="{4EAEE184-F6E3-4ABF-9DA2-4803CB07BCA9}" sourceName="Salesperson">
+  <pivotTables>
+    <pivotTable tabId="30" name="TablaDinámica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1828173918">
+      <items count="3">
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Region" xr10:uid="{689532C9-B76F-4B40-A288-AA2D7EF2BD03}" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="30" name="TablaDinámica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1828173918">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_DIVISION" xr10:uid="{FB1E22C8-A5CE-477C-9F44-AE402A3D6B1F}" sourceName="DIVISION">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -5173,7 +8427,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_DEPT" xr10:uid="{ECB103B9-CB7C-4DE7-AEED-E88EE7105047}" sourceName="DEPT">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -5190,8 +8444,16 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Month" xr10:uid="{64C6DFE8-9967-41EA-850B-32AE83267E97}" cache="SegmentaciónDeDatos_Month" caption="Month" columnCount="3" rowHeight="225425"/>
+  <slicer name="Salesperson" xr10:uid="{884CAA49-4BEE-41E5-B983-17626191CDD5}" cache="SegmentaciónDeDatos_Salesperson" caption="Salesperson" rowHeight="225425"/>
+  <slicer name="Region" xr10:uid="{7CC1D682-3974-4D07-B942-512CBFB00EE9}" cache="SegmentaciónDeDatos_Region" caption="Region" rowHeight="225425"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}" name="Tabla1" displayName="Tabla1" ref="A3:I41" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" headerRowCellStyle="Título 2" dataCellStyle="Normal 2 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}" name="Tabla1" displayName="Tabla1" ref="A3:I41" totalsRowCount="1" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" headerRowCellStyle="Título 2" dataCellStyle="Normal 2 2">
   <autoFilter ref="A3:I40" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5204,35 +8466,35 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1EAC7974-00C9-4EFB-85EF-CC63D7CFF707}" name="Emp ID" totalsRowLabel="Total" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="2" xr3:uid="{A63CA99E-6161-4779-8693-5A55889C846C}" name="Last Name" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="3" xr3:uid="{C60678BE-4903-4CEE-A144-AF9980E9471C}" name="First Name" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="4" xr3:uid="{EB3FC3A6-2C8D-4752-BF5A-732950821749}" name="Dept" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="5" xr3:uid="{34F17DC6-08A0-46E2-B329-C8D7D5A67F3A}" name="E-mail" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="6" xr3:uid="{8889C200-A3AD-4945-BF08-A559CD0A9858}" name="Phone Ext" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="7" xr3:uid="{C9CD6CEA-98FA-4B65-943A-1A7063852801}" name="Location" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="8" xr3:uid="{147208F8-E846-4A62-8092-F4D4DAB0B191}" name="Hire Date" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="9" xr3:uid="{11D89DE6-3277-408C-B9D8-7A5D6FA12CAC}" name="Pay Rate" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{1EAC7974-00C9-4EFB-85EF-CC63D7CFF707}" name="Emp ID" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="2" xr3:uid="{A63CA99E-6161-4779-8693-5A55889C846C}" name="Last Name" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="3" xr3:uid="{C60678BE-4903-4CEE-A144-AF9980E9471C}" name="First Name" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="4" xr3:uid="{EB3FC3A6-2C8D-4752-BF5A-732950821749}" name="Dept" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="5" xr3:uid="{34F17DC6-08A0-46E2-B329-C8D7D5A67F3A}" name="E-mail" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="6" xr3:uid="{8889C200-A3AD-4945-BF08-A559CD0A9858}" name="Phone Ext" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="7" xr3:uid="{C9CD6CEA-98FA-4B65-943A-1A7063852801}" name="Location" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="8" xr3:uid="{147208F8-E846-4A62-8092-F4D4DAB0B191}" name="Hire Date" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="9" xr3:uid="{11D89DE6-3277-408C-B9D8-7A5D6FA12CAC}" name="Pay Rate" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43D1ACAF-4669-4B1D-8AB5-BAD478937FF6}" name="Tabla2" displayName="Tabla2" ref="A3:K97" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43D1ACAF-4669-4B1D-8AB5-BAD478937FF6}" name="Tabla2" displayName="Tabla2" ref="A3:K97" totalsRowShown="0" dataDxfId="17" headerRowBorderDxfId="18">
   <autoFilter ref="A3:K97" xr:uid="{43D1ACAF-4669-4B1D-8AB5-BAD478937FF6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{324F20D1-5019-4BC2-96A5-BF300E6E9920}" name="NUM" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{69FEC92D-2C79-468A-847A-06767478B755}" name="FIRST" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{BD0187DC-E524-47BD-9A54-071DBCB876CF}" name="LAST" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D1AA3924-9535-4B8B-ABDF-2B9794825BCB}" name="EMP#" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{EA2F55AE-3B0E-4297-BF1B-7BA8151AB624}" name="DIVISION" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{888D4665-7893-4AC1-BE34-6A997178783A}" name="DEPT" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{AC7B5F1F-6CDD-453B-B7CD-B366C12ED714}" name="DATE of HIRE" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{55D85F03-D2AA-4215-9757-7A9A2C56AEDA}" name="BEN" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{92081B0F-A01B-4385-ADA3-0CA7EF6F2C34}" name="HRS" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{B488E6A0-D99F-451B-B764-AE01C3A10DC5}" name="HOURLY RATE" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{B1F42F0F-1C9A-4DDB-87B4-D2CF37D1BB78}" name="GROSS PAY" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{324F20D1-5019-4BC2-96A5-BF300E6E9920}" name="NUM" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{69FEC92D-2C79-468A-847A-06767478B755}" name="FIRST" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{BD0187DC-E524-47BD-9A54-071DBCB876CF}" name="LAST" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D1AA3924-9535-4B8B-ABDF-2B9794825BCB}" name="EMP#" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{EA2F55AE-3B0E-4297-BF1B-7BA8151AB624}" name="DIVISION" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{888D4665-7893-4AC1-BE34-6A997178783A}" name="DEPT" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{AC7B5F1F-6CDD-453B-B7CD-B366C12ED714}" name="DATE of HIRE" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{55D85F03-D2AA-4215-9757-7A9A2C56AEDA}" name="BEN" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{92081B0F-A01B-4385-ADA3-0CA7EF6F2C34}" name="HRS" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{B488E6A0-D99F-451B-B764-AE01C3A10DC5}" name="HOURLY RATE" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{B1F42F0F-1C9A-4DDB-87B4-D2CF37D1BB78}" name="GROSS PAY" dataDxfId="6">
       <calculatedColumnFormula>I4*J4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6662,7 +9924,7 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6824,6 +10086,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3A544E26-3A61-4A48-8966-3846F9B3513E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sparklines!I5:I9</xm:f>
+              <xm:sqref>I10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{2526D322-920A-4A7D-AE96-D6FD738E3621}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -6856,22 +10134,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3A544E26-3A61-4A48-8966-3846F9B3513E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sparklines!I5:I9</xm:f>
-              <xm:sqref>I10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6888,8 +10150,8 @@
   </sheetPr>
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="A4:G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10745,14 +14007,136 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE5B3-9991-4498-AB74-F07E9F32CC6F}">
+  <dimension ref="A3:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
+        <v>777</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="84" t="s">
+        <v>774</v>
+      </c>
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
+        <v>594</v>
+      </c>
+      <c r="B5" s="86">
+        <v>201155.5</v>
+      </c>
+      <c r="C5" s="86">
+        <v>79479</v>
+      </c>
+      <c r="D5" s="86">
+        <v>84449</v>
+      </c>
+      <c r="E5" s="86">
+        <v>365083.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="86">
+        <v>109438</v>
+      </c>
+      <c r="C6" s="86">
+        <v>121130</v>
+      </c>
+      <c r="D6" s="86">
+        <v>272687.5</v>
+      </c>
+      <c r="E6" s="86">
+        <v>503255.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="86">
+        <v>74302</v>
+      </c>
+      <c r="C7" s="86">
+        <v>248190.5</v>
+      </c>
+      <c r="D7" s="86">
+        <v>87056.5</v>
+      </c>
+      <c r="E7" s="86">
+        <v>409549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
+        <v>775</v>
+      </c>
+      <c r="B8" s="86">
+        <v>384895.5</v>
+      </c>
+      <c r="C8" s="86">
+        <v>448799.5</v>
+      </c>
+      <c r="D8" s="86">
+        <v>444193</v>
+      </c>
+      <c r="E8" s="86">
+        <v>1277888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A3:H12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10818,10 +14202,18 @@
       <c r="A6" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="25">
+        <v>800</v>
+      </c>
+      <c r="C6" s="87">
+        <v>45494</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E6" s="88">
+        <v>1000000000</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="69" t="s">
         <v>603</v>
@@ -10835,9 +14227,9 @@
         <v>597</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="15"/>
       <c r="G7" s="69" t="s">
         <v>604</v>
@@ -10853,7 +14245,7 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="15"/>
       <c r="G8" s="69" t="s">
         <v>605</v>
@@ -10869,7 +14261,7 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="15"/>
       <c r="G9" s="69" t="s">
         <v>606</v>
@@ -10885,7 +14277,7 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -10897,7 +14289,7 @@
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -10909,7 +14301,7 @@
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -10919,6 +14311,21 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ingresar valor de credito correcto" sqref="B6:B12" xr:uid="{53694CF1-7AF6-4CAA-A32B-83B8ACB60767}">
+      <formula1>300</formula1>
+      <formula2>800</formula2>
+    </dataValidation>
+    <dataValidation type="date" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Ingresar fecha de hoy" prompt="Ingresar fecha de hoy" sqref="C6:C12" xr:uid="{1D04B9C0-E0E7-4505-B884-370D4867583C}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D12" xr:uid="{3F14FE94-FBBD-4451-966B-B949616146C7}">
+      <formula1>$G$6:$G$9</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E12" xr:uid="{4033AFBF-BECA-459D-9AE5-0B320437C94D}">
+      <formula1>AND(ISNUMBER(E6),LEN(E6) = 10)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -10930,7 +14337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27AE9D8-02F7-4C87-9418-18D4D141D524}">
   <dimension ref="A1:H133"/>
   <sheetViews>
@@ -13617,7 +17024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>

--- a/Excel 365 Intermediate Example File.xlsx
+++ b/Excel 365 Intermediate Example File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyectos_Portafolio\Excel\Aprendizaje_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED548B-9C9F-447C-AFCE-1996D51914BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1975FE-1ED3-4A65-95A8-D651A0536899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Creating Tables" sheetId="21" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -2452,7 +2452,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -3054,6 +3054,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="32" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="35" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3078,13 +3085,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
@@ -3127,24 +3127,120 @@
     <cellStyle name="Título 2" xfId="17" builtinId="17"/>
     <cellStyle name="Título 3" xfId="19" builtinId="18"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="47">
     <dxf>
-      <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="_-* #,##0.0\ &quot;€&quot;_-;\-* #,##0.0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="_-* #,##0.0\ &quot;€&quot;_-;\-* #,##0.0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -6417,8 +6513,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Month">
@@ -6441,7 +6537,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6495,8 +6591,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Salesperson">
@@ -6519,7 +6615,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6573,8 +6669,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Region">
@@ -6597,7 +6693,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8224,7 +8320,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D792724F-C287-4C0F-8EEC-7884184FF7E1}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D792724F-C287-4C0F-8EEC-7884184FF7E1}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -8300,10 +8396,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma de Sales" fld="5" baseField="0" baseItem="0" numFmtId="173"/>
+    <dataField name="Suma de Sales" fld="5" baseField="0" baseItem="0" numFmtId="172"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8453,7 +8549,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}" name="Tabla1" displayName="Tabla1" ref="A3:I41" totalsRowCount="1" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" headerRowCellStyle="Título 2" dataCellStyle="Normal 2 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}" name="Tabla1" displayName="Tabla1" ref="A3:I41" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" headerRowCellStyle="Título 2" dataCellStyle="Normal 2 2">
   <autoFilter ref="A3:I40" xr:uid="{507E44F8-3413-4CE8-847D-3A3ECF843EC1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -8466,35 +8562,35 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1EAC7974-00C9-4EFB-85EF-CC63D7CFF707}" name="Emp ID" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="2" xr3:uid="{A63CA99E-6161-4779-8693-5A55889C846C}" name="Last Name" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="3" xr3:uid="{C60678BE-4903-4CEE-A144-AF9980E9471C}" name="First Name" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="4" xr3:uid="{EB3FC3A6-2C8D-4752-BF5A-732950821749}" name="Dept" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="5" xr3:uid="{34F17DC6-08A0-46E2-B329-C8D7D5A67F3A}" name="E-mail" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="6" xr3:uid="{8889C200-A3AD-4945-BF08-A559CD0A9858}" name="Phone Ext" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="7" xr3:uid="{C9CD6CEA-98FA-4B65-943A-1A7063852801}" name="Location" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="8" xr3:uid="{147208F8-E846-4A62-8092-F4D4DAB0B191}" name="Hire Date" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
-    <tableColumn id="9" xr3:uid="{11D89DE6-3277-408C-B9D8-7A5D6FA12CAC}" name="Pay Rate" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{1EAC7974-00C9-4EFB-85EF-CC63D7CFF707}" name="Emp ID" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="2" xr3:uid="{A63CA99E-6161-4779-8693-5A55889C846C}" name="Last Name" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="3" xr3:uid="{C60678BE-4903-4CEE-A144-AF9980E9471C}" name="First Name" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="4" xr3:uid="{EB3FC3A6-2C8D-4752-BF5A-732950821749}" name="Dept" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="5" xr3:uid="{34F17DC6-08A0-46E2-B329-C8D7D5A67F3A}" name="E-mail" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="6" xr3:uid="{8889C200-A3AD-4945-BF08-A559CD0A9858}" name="Phone Ext" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="7" xr3:uid="{C9CD6CEA-98FA-4B65-943A-1A7063852801}" name="Location" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="8" xr3:uid="{147208F8-E846-4A62-8092-F4D4DAB0B191}" name="Hire Date" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
+    <tableColumn id="9" xr3:uid="{11D89DE6-3277-408C-B9D8-7A5D6FA12CAC}" name="Pay Rate" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal 2 2" totalsRowCellStyle="Normal 2 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43D1ACAF-4669-4B1D-8AB5-BAD478937FF6}" name="Tabla2" displayName="Tabla2" ref="A3:K97" totalsRowShown="0" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43D1ACAF-4669-4B1D-8AB5-BAD478937FF6}" name="Tabla2" displayName="Tabla2" ref="A3:K97" totalsRowShown="0" dataDxfId="24" headerRowBorderDxfId="25">
   <autoFilter ref="A3:K97" xr:uid="{43D1ACAF-4669-4B1D-8AB5-BAD478937FF6}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{324F20D1-5019-4BC2-96A5-BF300E6E9920}" name="NUM" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{69FEC92D-2C79-468A-847A-06767478B755}" name="FIRST" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{BD0187DC-E524-47BD-9A54-071DBCB876CF}" name="LAST" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{D1AA3924-9535-4B8B-ABDF-2B9794825BCB}" name="EMP#" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{EA2F55AE-3B0E-4297-BF1B-7BA8151AB624}" name="DIVISION" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{888D4665-7893-4AC1-BE34-6A997178783A}" name="DEPT" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{AC7B5F1F-6CDD-453B-B7CD-B366C12ED714}" name="DATE of HIRE" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{55D85F03-D2AA-4215-9757-7A9A2C56AEDA}" name="BEN" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{92081B0F-A01B-4385-ADA3-0CA7EF6F2C34}" name="HRS" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{B488E6A0-D99F-451B-B764-AE01C3A10DC5}" name="HOURLY RATE" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{B1F42F0F-1C9A-4DDB-87B4-D2CF37D1BB78}" name="GROSS PAY" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{324F20D1-5019-4BC2-96A5-BF300E6E9920}" name="NUM" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{69FEC92D-2C79-468A-847A-06767478B755}" name="FIRST" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{BD0187DC-E524-47BD-9A54-071DBCB876CF}" name="LAST" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D1AA3924-9535-4B8B-ABDF-2B9794825BCB}" name="EMP#" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{EA2F55AE-3B0E-4297-BF1B-7BA8151AB624}" name="DIVISION" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{888D4665-7893-4AC1-BE34-6A997178783A}" name="DEPT" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{AC7B5F1F-6CDD-453B-B7CD-B366C12ED714}" name="DATE of HIRE" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{55D85F03-D2AA-4215-9757-7A9A2C56AEDA}" name="BEN" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{92081B0F-A01B-4385-ADA3-0CA7EF6F2C34}" name="HRS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{B488E6A0-D99F-451B-B764-AE01C3A10DC5}" name="HOURLY RATE" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{B1F42F0F-1C9A-4DDB-87B4-D2CF37D1BB78}" name="GROSS PAY" dataDxfId="13">
       <calculatedColumnFormula>I4*J4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9939,22 +10035,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="79">
+      <c r="A2" s="84">
         <v>2023</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -10086,22 +10182,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3A544E26-3A61-4A48-8966-3846F9B3513E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sparklines!I5:I9</xm:f>
-              <xm:sqref>I10</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{2526D322-920A-4A7D-AE96-D6FD738E3621}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -10131,6 +10211,22 @@
             <x14:sparkline>
               <xm:f>Sparklines!B9:E9</xm:f>
               <xm:sqref>F9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3A544E26-3A61-4A48-8966-3846F9B3513E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sparklines!I5:I9</xm:f>
+              <xm:sqref>I10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -14023,15 +14119,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="76" t="s">
         <v>777</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="76" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="76" t="s">
         <v>774</v>
       </c>
       <c r="B4" t="s">
@@ -14048,70 +14144,70 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="78">
         <v>201155.5</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="78">
         <v>79479</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="78">
         <v>84449</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="78">
         <v>365083.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="78">
         <v>109438</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="78">
         <v>121130</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="78">
         <v>272687.5</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="78">
         <v>503255.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="78">
         <v>74302</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="78">
         <v>248190.5</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="78">
         <v>87056.5</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="78">
         <v>409549</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="77" t="s">
         <v>775</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="78">
         <v>384895.5</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="78">
         <v>448799.5</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="78">
         <v>444193</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="78">
         <v>1277888</v>
       </c>
     </row>
@@ -14135,7 +14231,7 @@
   </sheetPr>
   <dimension ref="A3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -14153,13 +14249,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>595</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -14205,13 +14301,13 @@
       <c r="B6" s="25">
         <v>800</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="79">
         <v>45494</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="80">
         <v>1000000000</v>
       </c>
       <c r="F6" s="15"/>
@@ -14227,9 +14323,9 @@
         <v>597</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="87"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="88"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="15"/>
       <c r="G7" s="69" t="s">
         <v>604</v>
@@ -14245,7 +14341,7 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
-      <c r="E8" s="88"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="15"/>
       <c r="G8" s="69" t="s">
         <v>605</v>
@@ -14261,7 +14357,7 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="88"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="15"/>
       <c r="G9" s="69" t="s">
         <v>606</v>
@@ -14277,7 +14373,7 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="88"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -14289,7 +14385,7 @@
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="88"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -14301,7 +14397,7 @@
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="88"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -14342,7 +14438,7 @@
   <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17020,7 +17116,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="A2:F133">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($E2=3,$F2=2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17031,8 +17133,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17043,13 +17145,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
@@ -17081,7 +17183,10 @@
       <c r="A5" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="72" t="str">
+        <f>A3</f>
+        <v>Excel is even better than I expected!</v>
+      </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -17101,7 +17206,10 @@
       <c r="A7" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="72" t="str">
+        <f>'Pivot Table'!C9</f>
+        <v>Ice Cream</v>
+      </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -17514,16 +17622,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
@@ -22141,13 +22249,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>569</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
@@ -27390,20 +27498,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>570</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
